--- a/template.xlsx
+++ b/template.xlsx
@@ -15,7 +15,7 @@
     <definedName name="_xlnm.Print_Titles" localSheetId="1">'NEW PROPOSALS'!$3:$3</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="1">'NEW PROPOSALS'!$A$1:$W$174</definedName>
   </definedNames>
-  <calcPr calcId="191029" fullCalcOnLoad="1"/>
+  <calcPr calcId="191028" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
@@ -55,6 +55,11 @@
       <color indexed="12"/>
       <sz val="10"/>
       <u val="single"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <sz val="8"/>
     </font>
     <font>
       <name val="Arial"/>
@@ -108,6 +113,13 @@
       <name val="Arial"/>
       <family val="2"/>
       <b val="1"/>
+      <color rgb="FF000000"/>
+      <sz val="18"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="2"/>
+      <b val="1"/>
       <color theme="1"/>
       <sz val="12"/>
     </font>
@@ -148,21 +160,9 @@
       <b val="1"/>
       <sz val="36"/>
     </font>
-    <font>
-      <name val="Arial"/>
-      <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="12"/>
-      <u val="single"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <sz val="10"/>
-    </font>
     <font/>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -205,14 +205,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor auto="1"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="25">
+  <borders count="27">
     <border>
       <left/>
       <right/>
@@ -249,6 +243,17 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="medium">
@@ -266,6 +271,17 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -516,18 +532,18 @@
     </border>
   </borders>
   <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" applyProtection="1">
       <alignment vertical="top"/>
       <protection locked="0" hidden="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="130">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -536,7 +552,7 @@
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -545,22 +561,22 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
@@ -569,38 +585,38 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="1" fontId="7" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -609,268 +625,283 @@
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="3" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="3" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="10" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="11" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="5" borderId="12" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="5" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="17" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="19" fillId="4" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="15" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="13" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="15" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="6" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="14" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="18" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="18" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="18" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="13" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="15" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="18" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="2" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="18" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="14" fontId="20" fillId="0" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="15" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="17" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="20" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="18" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="20" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="3" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="166" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="4" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center"/>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="5" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="6" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="7" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="21" fillId="0" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="24" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="1" fontId="17" fillId="5" borderId="25" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="18" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="22" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="1" fontId="15" fillId="5" borderId="23" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="16" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="21" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="22" fillId="8" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
@@ -888,14 +919,14 @@
     <xf numFmtId="164" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
+    <xf numFmtId="166" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="20" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2334,6 +2365,24 @@
 </styleSheet>
 </file>
 
+<file path=xl/comments/comment1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>tc={6D4C9666-1BC9-A64E-8DE2-89C78FFCA3E3}</author>
+  </authors>
+  <commentList>
+    <comment ref="B5" authorId="0" shapeId="0">
+      <text>
+        <t>[Threaded comment]
+Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
+Comment:
+    Previous Year’s Examples</t>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="CompChkData" displayName="CompChkData" ref="A3:Z174" headerRowCount="1" totalsRowShown="0" headerRowDxfId="48" dataDxfId="47" tableBorderDxfId="46">
   <autoFilter ref="A3:Z174"/>
@@ -2820,7 +2869,7 @@
       <pane xSplit="1" ySplit="3" topLeftCell="B4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="A8" sqref="A8"/>
+      <selection pane="bottomRight" activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="25.42578125" defaultRowHeight="12.75" customHeight="1"/>
@@ -2843,12 +2892,11 @@
     <col width="50.85546875" customWidth="1" style="13" min="24" max="24"/>
     <col width="20.85546875" customWidth="1" style="7" min="25" max="25"/>
     <col width="25.42578125" customWidth="1" style="8" min="26" max="119"/>
-    <col width="25.42578125" customWidth="1" style="2" min="120" max="121"/>
-    <col width="25.42578125" customWidth="1" style="2" min="122" max="16384"/>
+    <col width="25.42578125" customWidth="1" style="2" min="120" max="16384"/>
   </cols>
   <sheetData>
     <row r="1" ht="44.25" customFormat="1" customHeight="1" s="1">
-      <c r="A1" s="119" t="inlineStr">
+      <c r="A1" s="111" t="inlineStr">
         <is>
           <t>INCITE 2024 NEW PROPOSALS</t>
         </is>
@@ -2859,16 +2907,16 @@
       <c r="E1" s="4" t="n"/>
       <c r="F1" s="4" t="n"/>
       <c r="G1" s="4" t="n"/>
-      <c r="H1" s="113" t="inlineStr">
+      <c r="H1" s="112" t="inlineStr">
         <is>
           <t xml:space="preserve">NARRATIVE    </t>
         </is>
       </c>
-      <c r="I1" s="114" t="n"/>
-      <c r="J1" s="114" t="n"/>
-      <c r="K1" s="114" t="n"/>
-      <c r="L1" s="114" t="n"/>
-      <c r="M1" s="115" t="n"/>
+      <c r="I1" s="113" t="n"/>
+      <c r="J1" s="113" t="n"/>
+      <c r="K1" s="113" t="n"/>
+      <c r="L1" s="113" t="n"/>
+      <c r="M1" s="114" t="n"/>
       <c r="N1" s="4" t="n"/>
       <c r="O1" s="4" t="n"/>
       <c r="P1" s="4" t="n"/>
@@ -2976,8 +3024,8 @@
       <c r="DN1" s="8" t="n"/>
       <c r="DO1" s="8" t="n"/>
     </row>
-    <row r="2" ht="107.25" customFormat="1" customHeight="1" s="21">
-      <c r="A2" s="120" t="n"/>
+    <row r="2" ht="110.25" customFormat="1" customHeight="1" s="21">
+      <c r="A2" s="115" t="n"/>
       <c r="B2" s="17" t="n"/>
       <c r="C2" s="17" t="n"/>
       <c r="D2" s="19" t="inlineStr">
@@ -3117,7 +3165,7 @@
       <c r="DN2" s="20" t="n"/>
       <c r="DO2" s="20" t="n"/>
     </row>
-    <row r="3" ht="61.5" customFormat="1" customHeight="1" s="39">
+    <row r="3" ht="63" customFormat="1" customHeight="1" s="39">
       <c r="A3" s="30" t="inlineStr">
         <is>
           <t>Proposal Number</t>
@@ -3491,7 +3539,7 @@
         <f>LEN(B5)</f>
         <v/>
       </c>
-      <c r="D5" s="78" t="n">
+      <c r="D5" s="119" t="n">
         <v>2.6</v>
       </c>
       <c r="E5" s="79" t="inlineStr">
@@ -3504,7 +3552,7 @@
           <t>Emily Belli</t>
         </is>
       </c>
-      <c r="G5" s="80" t="n">
+      <c r="G5" s="120" t="n">
         <v>44728.70984953704</v>
       </c>
       <c r="H5" s="81" t="inlineStr">
@@ -3606,7 +3654,7 @@
         <f>LEN(B6)</f>
         <v/>
       </c>
-      <c r="D6" s="90" t="n">
+      <c r="D6" s="121" t="n">
         <v>5.2</v>
       </c>
       <c r="E6" s="91" t="inlineStr">
@@ -3619,7 +3667,7 @@
           <t>Govoni, Marco</t>
         </is>
       </c>
-      <c r="G6" s="92" t="n">
+      <c r="G6" s="122" t="n">
         <v>44729.77777777778</v>
       </c>
       <c r="H6" s="93" t="inlineStr">
@@ -3720,10 +3768,10 @@
         <f>LEN(B7)</f>
         <v/>
       </c>
-      <c r="D7" s="65" t="n"/>
+      <c r="D7" s="123" t="n"/>
       <c r="E7" s="66" t="n"/>
       <c r="F7" s="67" t="n"/>
-      <c r="G7" s="68" t="n"/>
+      <c r="G7" s="124" t="n"/>
       <c r="H7" s="69" t="n"/>
       <c r="I7" s="70" t="n"/>
       <c r="J7" s="70" t="n"/>
@@ -3749,33 +3797,33 @@
       <c r="Z7" s="75" t="n"/>
     </row>
     <row r="8" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A8" s="121" t="inlineStr">
+      <c r="A8" s="125" t="inlineStr">
         <is>
           <t>20220026</t>
         </is>
       </c>
-      <c r="B8" s="121" t="inlineStr">
+      <c r="B8" s="126" t="inlineStr">
         <is>
           <t>Large-scale simulations of materials for energy and quantum information</t>
         </is>
       </c>
-      <c r="C8" s="122" t="n">
+      <c r="C8" s="127" t="n">
         <v>71</v>
       </c>
-      <c r="D8" s="123" t="n">
+      <c r="D8" s="128" t="n">
         <v>5.19</v>
       </c>
-      <c r="E8" s="124" t="inlineStr">
+      <c r="E8" s="129" t="inlineStr">
         <is>
           <t>Marco Govoni</t>
         </is>
       </c>
-      <c r="F8" s="124" t="inlineStr">
+      <c r="F8" s="129" t="inlineStr">
         <is>
           <t>GovoniMarco</t>
         </is>
       </c>
-      <c r="G8" s="125" t="inlineStr">
+      <c r="G8" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 6:40:23 PM</t>
         </is>
@@ -3794,12 +3842,12 @@
       <c r="S8" s="44" t="n"/>
       <c r="T8" s="44" t="n"/>
       <c r="U8" s="41" t="n"/>
-      <c r="V8" s="126" t="inlineStr">
+      <c r="V8" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W8" s="126" t="inlineStr">
+      <c r="W8" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3813,33 +3861,33 @@
       <c r="Z8" s="46" t="n"/>
     </row>
     <row r="9" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A9" s="129" t="inlineStr">
+      <c r="A9" s="125" t="inlineStr">
         <is>
           <t>20220028</t>
         </is>
       </c>
-      <c r="B9" s="127" t="inlineStr">
+      <c r="B9" s="126" t="inlineStr">
         <is>
           <t>Toward In-Service Realism: DNS of Gas Turbine Blades with Localized</t>
         </is>
       </c>
-      <c r="C9" s="122" t="n">
+      <c r="C9" s="127" t="n">
         <v>67</v>
       </c>
-      <c r="D9" s="123" t="n">
+      <c r="D9" s="128" t="n">
         <v>9.06</v>
       </c>
-      <c r="E9" s="124" t="inlineStr">
+      <c r="E9" s="129" t="inlineStr">
         <is>
           <t>Richard Sandberg</t>
         </is>
       </c>
-      <c r="F9" s="124" t="inlineStr">
+      <c r="F9" s="129" t="inlineStr">
         <is>
           <t>SandbergRichard</t>
         </is>
       </c>
-      <c r="G9" s="125" t="inlineStr">
+      <c r="G9" s="130" t="inlineStr">
         <is>
           <t>6/10/2022 3:02:42 AM</t>
         </is>
@@ -3858,12 +3906,12 @@
       <c r="S9" s="44" t="n"/>
       <c r="T9" s="44" t="n"/>
       <c r="U9" s="41" t="n"/>
-      <c r="V9" s="126" t="inlineStr">
+      <c r="V9" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W9" s="126" t="inlineStr">
+      <c r="W9" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3877,33 +3925,33 @@
       <c r="Z9" s="46" t="n"/>
     </row>
     <row r="10" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A10" s="129" t="inlineStr">
+      <c r="A10" s="125" t="inlineStr">
         <is>
           <t>20220029</t>
         </is>
       </c>
-      <c r="B10" s="127" t="inlineStr">
+      <c r="B10" s="126" t="inlineStr">
         <is>
           <t>QCD under extreme conditions</t>
         </is>
       </c>
-      <c r="C10" s="122" t="n">
+      <c r="C10" s="127" t="n">
         <v>28</v>
       </c>
-      <c r="D10" s="123" t="n">
+      <c r="D10" s="128" t="n">
         <v>2.65</v>
       </c>
-      <c r="E10" s="124" t="inlineStr">
+      <c r="E10" s="129" t="inlineStr">
         <is>
           <t>Volodymyr Vovchenko</t>
         </is>
       </c>
-      <c r="F10" s="124" t="inlineStr">
+      <c r="F10" s="129" t="inlineStr">
         <is>
           <t>VovchenkoVolodymyr</t>
         </is>
       </c>
-      <c r="G10" s="125" t="inlineStr">
+      <c r="G10" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 4:58:46 AM</t>
         </is>
@@ -3922,12 +3970,12 @@
       <c r="S10" s="44" t="n"/>
       <c r="T10" s="44" t="n"/>
       <c r="U10" s="41" t="n"/>
-      <c r="V10" s="126" t="inlineStr">
+      <c r="V10" s="131" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="W10" s="126" t="inlineStr">
+      <c r="W10" s="131" t="inlineStr">
         <is>
           <t>201</t>
         </is>
@@ -3937,33 +3985,33 @@
       <c r="Z10" s="46" t="n"/>
     </row>
     <row r="11" ht="54.75" customFormat="1" customHeight="1" s="11">
-      <c r="A11" s="129" t="inlineStr">
+      <c r="A11" s="125" t="inlineStr">
         <is>
           <t>20220030</t>
         </is>
       </c>
-      <c r="B11" s="127" t="inlineStr">
+      <c r="B11" s="126" t="inlineStr">
         <is>
           <t>Long term 3D simulations of core  collapse supernovae</t>
         </is>
       </c>
-      <c r="C11" s="122" t="n">
+      <c r="C11" s="127" t="n">
         <v>53</v>
       </c>
-      <c r="D11" s="123" t="n">
+      <c r="D11" s="128" t="n">
         <v>5.49</v>
       </c>
-      <c r="E11" s="124" t="inlineStr">
+      <c r="E11" s="129" t="inlineStr">
         <is>
           <t>William Raphael Hix</t>
         </is>
       </c>
-      <c r="F11" s="124" t="inlineStr">
+      <c r="F11" s="129" t="inlineStr">
         <is>
           <t>HixWilliam Raphael</t>
         </is>
       </c>
-      <c r="G11" s="125" t="inlineStr">
+      <c r="G11" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 2:44:06 PM</t>
         </is>
@@ -3982,12 +4030,12 @@
       <c r="S11" s="44" t="n"/>
       <c r="T11" s="44" t="n"/>
       <c r="U11" s="41" t="n"/>
-      <c r="V11" s="126" t="inlineStr">
+      <c r="V11" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W11" s="126" t="inlineStr">
+      <c r="W11" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -3997,33 +4045,33 @@
       <c r="Z11" s="46" t="n"/>
     </row>
     <row r="12" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A12" s="129" t="inlineStr">
+      <c r="A12" s="125" t="inlineStr">
         <is>
           <t>20220031</t>
         </is>
       </c>
-      <c r="B12" s="127" t="inlineStr">
+      <c r="B12" s="126" t="inlineStr">
         <is>
           <t>High-Fidelity Turbulence Simulation of Three-Dimensional Complex Flow</t>
         </is>
       </c>
-      <c r="C12" s="122" t="n">
+      <c r="C12" s="127" t="n">
         <v>69</v>
       </c>
-      <c r="D12" s="123" t="n">
+      <c r="D12" s="128" t="n">
         <v>5.05</v>
       </c>
-      <c r="E12" s="124" t="inlineStr">
+      <c r="E12" s="129" t="inlineStr">
         <is>
           <t>Ali Uzun</t>
         </is>
       </c>
-      <c r="F12" s="124" t="inlineStr">
+      <c r="F12" s="129" t="inlineStr">
         <is>
           <t>UzunAli</t>
         </is>
       </c>
-      <c r="G12" s="125" t="inlineStr">
+      <c r="G12" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 2:16:32 PM</t>
         </is>
@@ -4042,12 +4090,12 @@
       <c r="S12" s="44" t="n"/>
       <c r="T12" s="44" t="n"/>
       <c r="U12" s="41" t="n"/>
-      <c r="V12" s="126" t="inlineStr">
+      <c r="V12" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W12" s="126" t="inlineStr">
+      <c r="W12" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4057,33 +4105,33 @@
       <c r="Z12" s="46" t="n"/>
     </row>
     <row r="13" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A13" s="129" t="inlineStr">
+      <c r="A13" s="125" t="inlineStr">
         <is>
           <t>20220032</t>
         </is>
       </c>
-      <c r="B13" s="127" t="inlineStr">
+      <c r="B13" s="126" t="inlineStr">
         <is>
           <t>Quantifying carbon outcomes over the U.S. Cropland using AI-based data-</t>
         </is>
       </c>
-      <c r="C13" s="122" t="n">
+      <c r="C13" s="127" t="n">
         <v>71</v>
       </c>
-      <c r="D13" s="123" t="n">
+      <c r="D13" s="128" t="n">
         <v>2.87</v>
       </c>
-      <c r="E13" s="124" t="inlineStr">
+      <c r="E13" s="129" t="inlineStr">
         <is>
           <t>Kaiyu Guan</t>
         </is>
       </c>
-      <c r="F13" s="124" t="inlineStr">
+      <c r="F13" s="129" t="inlineStr">
         <is>
           <t>GuanKaiyu</t>
         </is>
       </c>
-      <c r="G13" s="125" t="inlineStr">
+      <c r="G13" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 7:53:51 PM</t>
         </is>
@@ -4102,12 +4150,12 @@
       <c r="S13" s="44" t="n"/>
       <c r="T13" s="44" t="n"/>
       <c r="U13" s="41" t="n"/>
-      <c r="V13" s="126" t="inlineStr">
+      <c r="V13" s="131" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="W13" s="126" t="inlineStr">
+      <c r="W13" s="131" t="inlineStr">
         <is>
           <t>201</t>
         </is>
@@ -4117,33 +4165,33 @@
       <c r="Z13" s="46" t="n"/>
     </row>
     <row r="14" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A14" s="129" t="inlineStr">
+      <c r="A14" s="125" t="inlineStr">
         <is>
           <t>20220034</t>
         </is>
       </c>
-      <c r="B14" s="127" t="inlineStr">
+      <c r="B14" s="126" t="inlineStr">
         <is>
           <t>Ab Initio Investigation of Disorder and Defects in Structural and Functional</t>
         </is>
       </c>
-      <c r="C14" s="122" t="n">
+      <c r="C14" s="127" t="n">
         <v>76</v>
       </c>
-      <c r="D14" s="123" t="n">
+      <c r="D14" s="128" t="n">
         <v>3.17</v>
       </c>
-      <c r="E14" s="124" t="inlineStr">
+      <c r="E14" s="129" t="inlineStr">
         <is>
           <t>Markus Eisenbach</t>
         </is>
       </c>
-      <c r="F14" s="124" t="inlineStr">
+      <c r="F14" s="129" t="inlineStr">
         <is>
           <t>EisenbachMarkus</t>
         </is>
       </c>
-      <c r="G14" s="125" t="inlineStr">
+      <c r="G14" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 3:14:07 PM</t>
         </is>
@@ -4162,12 +4210,12 @@
       <c r="S14" s="44" t="n"/>
       <c r="T14" s="44" t="n"/>
       <c r="U14" s="41" t="n"/>
-      <c r="V14" s="126" t="inlineStr">
+      <c r="V14" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W14" s="126" t="inlineStr">
+      <c r="W14" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4177,33 +4225,33 @@
       <c r="Z14" s="46" t="n"/>
     </row>
     <row r="15" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A15" s="129" t="inlineStr">
+      <c r="A15" s="125" t="inlineStr">
         <is>
           <t>20220035</t>
         </is>
       </c>
-      <c r="B15" s="127" t="inlineStr">
+      <c r="B15" s="126" t="inlineStr">
         <is>
           <t>First-principles Simulations of Pulsar Magnetospheres</t>
         </is>
       </c>
-      <c r="C15" s="122" t="n">
+      <c r="C15" s="127" t="n">
         <v>53</v>
       </c>
-      <c r="D15" s="123" t="n">
+      <c r="D15" s="128" t="n">
         <v>3.52</v>
       </c>
-      <c r="E15" s="124" t="inlineStr">
+      <c r="E15" s="129" t="inlineStr">
         <is>
           <t>Revathi Jambunathan</t>
         </is>
       </c>
-      <c r="F15" s="124" t="inlineStr">
+      <c r="F15" s="129" t="inlineStr">
         <is>
           <t>JambunathanRevathi</t>
         </is>
       </c>
-      <c r="G15" s="125" t="inlineStr">
+      <c r="G15" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 5:38:27 PM</t>
         </is>
@@ -4222,12 +4270,12 @@
       <c r="S15" s="44" t="n"/>
       <c r="T15" s="44" t="n"/>
       <c r="U15" s="41" t="n"/>
-      <c r="V15" s="126" t="inlineStr">
+      <c r="V15" s="131" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="W15" s="126" t="inlineStr">
+      <c r="W15" s="131" t="inlineStr">
         <is>
           <t>201</t>
         </is>
@@ -4237,33 +4285,33 @@
       <c r="Z15" s="46" t="n"/>
     </row>
     <row r="16" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A16" s="129" t="inlineStr">
+      <c r="A16" s="125" t="inlineStr">
         <is>
           <t>20220036</t>
         </is>
       </c>
-      <c r="B16" s="127" t="inlineStr">
+      <c r="B16" s="126" t="inlineStr">
         <is>
           <t>First-Principles Electron Dynamics in Complex Systems</t>
         </is>
       </c>
-      <c r="C16" s="122" t="n">
+      <c r="C16" s="127" t="n">
         <v>53</v>
       </c>
-      <c r="D16" s="123" t="n">
+      <c r="D16" s="128" t="n">
         <v>4.73</v>
       </c>
-      <c r="E16" s="124" t="inlineStr">
+      <c r="E16" s="129" t="inlineStr">
         <is>
           <t>Andre Schleife</t>
         </is>
       </c>
-      <c r="F16" s="124" t="inlineStr">
+      <c r="F16" s="129" t="inlineStr">
         <is>
           <t>SchleifeAndre</t>
         </is>
       </c>
-      <c r="G16" s="125" t="inlineStr">
+      <c r="G16" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 5:44:38 PM</t>
         </is>
@@ -4282,12 +4330,12 @@
       <c r="S16" s="44" t="n"/>
       <c r="T16" s="44" t="n"/>
       <c r="U16" s="41" t="n"/>
-      <c r="V16" s="126" t="inlineStr">
+      <c r="V16" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W16" s="126" t="inlineStr">
+      <c r="W16" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4297,33 +4345,33 @@
       <c r="Z16" s="46" t="n"/>
     </row>
     <row r="17" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A17" s="129" t="inlineStr">
+      <c r="A17" s="125" t="inlineStr">
         <is>
           <t>20220039</t>
         </is>
       </c>
-      <c r="B17" s="127" t="inlineStr">
+      <c r="B17" s="126" t="inlineStr">
         <is>
           <t>Hybrid simulation of macroscopic instabilities with energetic particles in</t>
         </is>
       </c>
-      <c r="C17" s="122" t="n">
+      <c r="C17" s="127" t="n">
         <v>74</v>
       </c>
-      <c r="D17" s="123" t="n">
+      <c r="D17" s="128" t="n">
         <v>1.74</v>
       </c>
-      <c r="E17" s="124" t="inlineStr">
+      <c r="E17" s="129" t="inlineStr">
         <is>
           <t>Chang Liu</t>
         </is>
       </c>
-      <c r="F17" s="124" t="inlineStr">
+      <c r="F17" s="129" t="inlineStr">
         <is>
           <t>LiuChang</t>
         </is>
       </c>
-      <c r="G17" s="125" t="inlineStr">
+      <c r="G17" s="130" t="inlineStr">
         <is>
           <t>6/20/2022 10:48:21 AM</t>
         </is>
@@ -4342,12 +4390,12 @@
       <c r="S17" s="44" t="n"/>
       <c r="T17" s="44" t="n"/>
       <c r="U17" s="41" t="n"/>
-      <c r="V17" s="126" t="inlineStr">
+      <c r="V17" s="131" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="W17" s="126" t="inlineStr">
+      <c r="W17" s="131" t="inlineStr">
         <is>
           <t>201</t>
         </is>
@@ -4357,33 +4405,33 @@
       <c r="Z17" s="46" t="n"/>
     </row>
     <row r="18" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A18" s="129" t="inlineStr">
+      <c r="A18" s="125" t="inlineStr">
         <is>
           <t>20220041</t>
         </is>
       </c>
-      <c r="B18" s="127" t="inlineStr">
+      <c r="B18" s="126" t="inlineStr">
         <is>
           <t>Machine learning classical potentials for end-to-end design of organic</t>
         </is>
       </c>
-      <c r="C18" s="122" t="n">
+      <c r="C18" s="127" t="n">
         <v>70</v>
       </c>
-      <c r="D18" s="123" t="n">
+      <c r="D18" s="128" t="n">
         <v>2.4</v>
       </c>
-      <c r="E18" s="124" t="inlineStr">
+      <c r="E18" s="129" t="inlineStr">
         <is>
           <t>Rafael Gomez-Bombarelli</t>
         </is>
       </c>
-      <c r="F18" s="124" t="inlineStr">
+      <c r="F18" s="129" t="inlineStr">
         <is>
           <t>Gomez-BombarelliRafael</t>
         </is>
       </c>
-      <c r="G18" s="125" t="inlineStr">
+      <c r="G18" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 6:13:03 PM</t>
         </is>
@@ -4402,12 +4450,12 @@
       <c r="S18" s="44" t="n"/>
       <c r="T18" s="44" t="n"/>
       <c r="U18" s="41" t="n"/>
-      <c r="V18" s="126" t="inlineStr">
+      <c r="V18" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W18" s="126" t="inlineStr">
+      <c r="W18" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4417,33 +4465,33 @@
       <c r="Z18" s="46" t="n"/>
     </row>
     <row r="19" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A19" s="129" t="inlineStr">
+      <c r="A19" s="125" t="inlineStr">
         <is>
           <t>20220042</t>
         </is>
       </c>
-      <c r="B19" s="127" t="inlineStr">
+      <c r="B19" s="126" t="inlineStr">
         <is>
           <t>Advances in Quark and Lepton Flavor Physics with Lattice QCD</t>
         </is>
       </c>
-      <c r="C19" s="122" t="n">
+      <c r="C19" s="127" t="n">
         <v>60</v>
       </c>
-      <c r="D19" s="123" t="n">
+      <c r="D19" s="128" t="n">
         <v>5.33</v>
       </c>
-      <c r="E19" s="124" t="inlineStr">
+      <c r="E19" s="129" t="inlineStr">
         <is>
           <t>Andreas Kronfeld</t>
         </is>
       </c>
-      <c r="F19" s="124" t="inlineStr">
+      <c r="F19" s="129" t="inlineStr">
         <is>
           <t>KronfeldAndreas</t>
         </is>
       </c>
-      <c r="G19" s="125" t="inlineStr">
+      <c r="G19" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 7:05:24 PM</t>
         </is>
@@ -4462,12 +4510,12 @@
       <c r="S19" s="44" t="n"/>
       <c r="T19" s="44" t="n"/>
       <c r="U19" s="41" t="n"/>
-      <c r="V19" s="126" t="inlineStr">
+      <c r="V19" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W19" s="126" t="inlineStr">
+      <c r="W19" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4477,33 +4525,33 @@
       <c r="Z19" s="46" t="n"/>
     </row>
     <row r="20" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A20" s="129" t="inlineStr">
+      <c r="A20" s="125" t="inlineStr">
         <is>
           <t>20220044</t>
         </is>
       </c>
-      <c r="B20" s="127" t="inlineStr">
+      <c r="B20" s="126" t="inlineStr">
         <is>
           <t>Lipid shuttling molecular machines enabling functions of human cell</t>
         </is>
       </c>
-      <c r="C20" s="122" t="n">
+      <c r="C20" s="127" t="n">
         <v>67</v>
       </c>
-      <c r="D20" s="123" t="n">
+      <c r="D20" s="128" t="n">
         <v>4.62</v>
       </c>
-      <c r="E20" s="124" t="inlineStr">
+      <c r="E20" s="129" t="inlineStr">
         <is>
           <t>George Khelashvili</t>
         </is>
       </c>
-      <c r="F20" s="124" t="inlineStr">
+      <c r="F20" s="129" t="inlineStr">
         <is>
           <t>KhelashviliGeorge</t>
         </is>
       </c>
-      <c r="G20" s="125" t="inlineStr">
+      <c r="G20" s="130" t="inlineStr">
         <is>
           <t>6/14/2022 10:13:38 PM</t>
         </is>
@@ -4522,12 +4570,12 @@
       <c r="S20" s="44" t="n"/>
       <c r="T20" s="44" t="n"/>
       <c r="U20" s="41" t="n"/>
-      <c r="V20" s="126" t="inlineStr">
+      <c r="V20" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W20" s="126" t="inlineStr">
+      <c r="W20" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4537,33 +4585,33 @@
       <c r="Z20" s="46" t="n"/>
     </row>
     <row r="21" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A21" s="129" t="inlineStr">
+      <c r="A21" s="125" t="inlineStr">
         <is>
           <t>20220045</t>
         </is>
       </c>
-      <c r="B21" s="127" t="inlineStr">
+      <c r="B21" s="126" t="inlineStr">
         <is>
           <t>Novel high-fidelity moment closures for polydisperse multiphase turbulent</t>
         </is>
       </c>
-      <c r="C21" s="122" t="n">
+      <c r="C21" s="127" t="n">
         <v>73</v>
       </c>
-      <c r="D21" s="123" t="n">
+      <c r="D21" s="128" t="n">
         <v>2.05</v>
       </c>
-      <c r="E21" s="124" t="inlineStr">
+      <c r="E21" s="129" t="inlineStr">
         <is>
           <t>Lucian Ivan</t>
         </is>
       </c>
-      <c r="F21" s="124" t="inlineStr">
+      <c r="F21" s="129" t="inlineStr">
         <is>
           <t>IvanLucian</t>
         </is>
       </c>
-      <c r="G21" s="125" t="inlineStr">
+      <c r="G21" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 10:27:51 PM</t>
         </is>
@@ -4582,12 +4630,12 @@
       <c r="S21" s="44" t="n"/>
       <c r="T21" s="44" t="n"/>
       <c r="U21" s="41" t="n"/>
-      <c r="V21" s="126" t="inlineStr">
+      <c r="V21" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W21" s="126" t="inlineStr">
+      <c r="W21" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4597,33 +4645,33 @@
       <c r="Z21" s="46" t="n"/>
     </row>
     <row r="22" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A22" s="129" t="inlineStr">
+      <c r="A22" s="125" t="inlineStr">
         <is>
           <t>20220048</t>
         </is>
       </c>
-      <c r="B22" s="127" t="inlineStr">
+      <c r="B22" s="126" t="inlineStr">
         <is>
           <t>Hadron physics from first principles</t>
         </is>
       </c>
-      <c r="C22" s="122" t="n">
+      <c r="C22" s="127" t="n">
         <v>36</v>
       </c>
-      <c r="D22" s="123" t="n">
+      <c r="D22" s="128" t="n">
         <v>2.66</v>
       </c>
-      <c r="E22" s="124" t="inlineStr">
+      <c r="E22" s="129" t="inlineStr">
         <is>
           <t>Konstantinos Orginos</t>
         </is>
       </c>
-      <c r="F22" s="124" t="inlineStr">
+      <c r="F22" s="129" t="inlineStr">
         <is>
           <t>OrginosKonstantinos</t>
         </is>
       </c>
-      <c r="G22" s="125" t="inlineStr">
+      <c r="G22" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 5:49:07 PM</t>
         </is>
@@ -4642,12 +4690,12 @@
       <c r="S22" s="44" t="n"/>
       <c r="T22" s="44" t="n"/>
       <c r="U22" s="41" t="n"/>
-      <c r="V22" s="126" t="inlineStr">
+      <c r="V22" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W22" s="126" t="inlineStr">
+      <c r="W22" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4657,33 +4705,33 @@
       <c r="Z22" s="46" t="n"/>
     </row>
     <row r="23" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A23" s="129" t="inlineStr">
+      <c r="A23" s="125" t="inlineStr">
         <is>
           <t>20220049</t>
         </is>
       </c>
-      <c r="B23" s="127" t="inlineStr">
+      <c r="B23" s="126" t="inlineStr">
         <is>
           <t>Nuclear femtography: parton distribution functions for the Electron-Ion</t>
         </is>
       </c>
-      <c r="C23" s="122" t="n">
+      <c r="C23" s="127" t="n">
         <v>71</v>
       </c>
-      <c r="D23" s="123" t="n">
+      <c r="D23" s="128" t="n">
         <v>2.04</v>
       </c>
-      <c r="E23" s="124" t="inlineStr">
+      <c r="E23" s="129" t="inlineStr">
         <is>
           <t>Phiala Shanahan</t>
         </is>
       </c>
-      <c r="F23" s="124" t="inlineStr">
+      <c r="F23" s="129" t="inlineStr">
         <is>
           <t>ShanahanPhiala</t>
         </is>
       </c>
-      <c r="G23" s="125" t="inlineStr">
+      <c r="G23" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 12:42:15 PM</t>
         </is>
@@ -4702,12 +4750,12 @@
       <c r="S23" s="44" t="n"/>
       <c r="T23" s="44" t="n"/>
       <c r="U23" s="41" t="n"/>
-      <c r="V23" s="126" t="inlineStr">
+      <c r="V23" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W23" s="126" t="inlineStr">
+      <c r="W23" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4717,33 +4765,33 @@
       <c r="Z23" s="46" t="n"/>
     </row>
     <row r="24" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A24" s="129" t="inlineStr">
+      <c r="A24" s="125" t="inlineStr">
         <is>
           <t>20220050</t>
         </is>
       </c>
-      <c r="B24" s="127" t="inlineStr">
+      <c r="B24" s="126" t="inlineStr">
         <is>
           <t>Cavitation inception in turbulent liquid metal</t>
         </is>
       </c>
-      <c r="C24" s="122" t="n">
+      <c r="C24" s="127" t="n">
         <v>46</v>
       </c>
-      <c r="D24" s="123" t="n">
+      <c r="D24" s="128" t="n">
         <v>6.57</v>
       </c>
-      <c r="E24" s="124" t="inlineStr">
+      <c r="E24" s="129" t="inlineStr">
         <is>
           <t>Mark Kostuk</t>
         </is>
       </c>
-      <c r="F24" s="124" t="inlineStr">
+      <c r="F24" s="129" t="inlineStr">
         <is>
           <t>KostukMark</t>
         </is>
       </c>
-      <c r="G24" s="125" t="inlineStr">
+      <c r="G24" s="130" t="inlineStr">
         <is>
           <t>6/15/2022 4:25:46 PM</t>
         </is>
@@ -4762,12 +4810,12 @@
       <c r="S24" s="44" t="n"/>
       <c r="T24" s="44" t="n"/>
       <c r="U24" s="41" t="n"/>
-      <c r="V24" s="126" t="inlineStr">
+      <c r="V24" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W24" s="126" t="inlineStr">
+      <c r="W24" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4777,33 +4825,33 @@
       <c r="Z24" s="46" t="n"/>
     </row>
     <row r="25" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A25" s="129" t="inlineStr">
+      <c r="A25" s="125" t="inlineStr">
         <is>
           <t>20220052</t>
         </is>
       </c>
-      <c r="B25" s="127" t="inlineStr">
+      <c r="B25" s="126" t="inlineStr">
         <is>
           <t>DNS and LES of Gas Turbine Combustors for Sustainable Aviation Fuels</t>
         </is>
       </c>
-      <c r="C25" s="122" t="n">
+      <c r="C25" s="127" t="n">
         <v>68</v>
       </c>
-      <c r="D25" s="123" t="n">
+      <c r="D25" s="128" t="n">
         <v>2.68</v>
       </c>
-      <c r="E25" s="124" t="inlineStr">
+      <c r="E25" s="129" t="inlineStr">
         <is>
           <t>Muhsin Ameen</t>
         </is>
       </c>
-      <c r="F25" s="124" t="inlineStr">
+      <c r="F25" s="129" t="inlineStr">
         <is>
           <t>AmeenMuhsin</t>
         </is>
       </c>
-      <c r="G25" s="125" t="inlineStr">
+      <c r="G25" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 4:26:36 PM</t>
         </is>
@@ -4822,12 +4870,12 @@
       <c r="S25" s="44" t="n"/>
       <c r="T25" s="44" t="n"/>
       <c r="U25" s="41" t="n"/>
-      <c r="V25" s="126" t="inlineStr">
+      <c r="V25" s="131" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="W25" s="126" t="inlineStr">
+      <c r="W25" s="131" t="inlineStr">
         <is>
           <t>201</t>
         </is>
@@ -4837,33 +4885,33 @@
       <c r="Z25" s="46" t="n"/>
     </row>
     <row r="26" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A26" s="129" t="inlineStr">
+      <c r="A26" s="125" t="inlineStr">
         <is>
           <t>20220053</t>
         </is>
       </c>
-      <c r="B26" s="127" t="inlineStr">
+      <c r="B26" s="126" t="inlineStr">
         <is>
           <t>Solution of the Navier-Stokes Equations for Industrial Scale Fluid</t>
         </is>
       </c>
-      <c r="C26" s="122" t="n">
+      <c r="C26" s="127" t="n">
         <v>66</v>
       </c>
-      <c r="D26" s="123" t="n">
+      <c r="D26" s="128" t="n">
         <v>11.99</v>
       </c>
-      <c r="E26" s="128" t="inlineStr">
+      <c r="E26" s="132" t="inlineStr">
         <is>
           <t>Luigi Martinelli</t>
         </is>
       </c>
-      <c r="F26" s="124" t="inlineStr">
+      <c r="F26" s="129" t="inlineStr">
         <is>
           <t>MartinelliLuigi</t>
         </is>
       </c>
-      <c r="G26" s="125" t="inlineStr">
+      <c r="G26" s="130" t="inlineStr">
         <is>
           <t>6/16/2022 4:43:22 PM</t>
         </is>
@@ -4882,12 +4930,12 @@
       <c r="S26" s="44" t="n"/>
       <c r="T26" s="44" t="n"/>
       <c r="U26" s="41" t="n"/>
-      <c r="V26" s="126" t="inlineStr">
+      <c r="V26" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W26" s="126" t="inlineStr">
+      <c r="W26" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4897,33 +4945,33 @@
       <c r="Z26" s="46" t="n"/>
     </row>
     <row r="27" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A27" s="129" t="inlineStr">
+      <c r="A27" s="125" t="inlineStr">
         <is>
           <t>20220054</t>
         </is>
       </c>
-      <c r="B27" s="127" t="inlineStr">
+      <c r="B27" s="126" t="inlineStr">
         <is>
           <t>EQSIM Regional-Scale Simulations for Earthquake Hazard and Risk</t>
         </is>
       </c>
-      <c r="C27" s="122" t="n">
+      <c r="C27" s="127" t="n">
         <v>63</v>
       </c>
-      <c r="D27" s="123" t="n">
+      <c r="D27" s="128" t="n">
         <v>7.16</v>
       </c>
-      <c r="E27" s="124" t="inlineStr">
+      <c r="E27" s="129" t="inlineStr">
         <is>
           <t>David McCallen</t>
         </is>
       </c>
-      <c r="F27" s="124" t="inlineStr">
+      <c r="F27" s="129" t="inlineStr">
         <is>
           <t>McCallenDavid</t>
         </is>
       </c>
-      <c r="G27" s="125" t="inlineStr">
+      <c r="G27" s="130" t="inlineStr">
         <is>
           <t>6/15/2022 8:04:20 PM</t>
         </is>
@@ -4942,8 +4990,8 @@
       <c r="S27" s="44" t="n"/>
       <c r="T27" s="44" t="n"/>
       <c r="U27" s="41" t="n"/>
-      <c r="V27" s="126" t="n"/>
-      <c r="W27" s="126" t="inlineStr">
+      <c r="V27" s="131" t="n"/>
+      <c r="W27" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -4953,33 +5001,33 @@
       <c r="Z27" s="46" t="n"/>
     </row>
     <row r="28" ht="55.5" customFormat="1" customHeight="1" s="11">
-      <c r="A28" s="129" t="inlineStr">
+      <c r="A28" s="125" t="inlineStr">
         <is>
           <t>20220055</t>
         </is>
       </c>
-      <c r="B28" s="127" t="inlineStr">
+      <c r="B28" s="126" t="inlineStr">
         <is>
           <t>Understanding protein allostery and druggable locations from the unified</t>
         </is>
       </c>
-      <c r="C28" s="122" t="n">
+      <c r="C28" s="127" t="n">
         <v>72</v>
       </c>
-      <c r="D28" s="123" t="n">
+      <c r="D28" s="128" t="n">
         <v>2.84</v>
       </c>
-      <c r="E28" s="124" t="inlineStr">
+      <c r="E28" s="129" t="inlineStr">
         <is>
           <t>Ao Ma</t>
         </is>
       </c>
-      <c r="F28" s="124" t="inlineStr">
+      <c r="F28" s="129" t="inlineStr">
         <is>
           <t>MaAo</t>
         </is>
       </c>
-      <c r="G28" s="125" t="inlineStr">
+      <c r="G28" s="130" t="inlineStr">
         <is>
           <t>6/15/2022 11:30:55 PM</t>
         </is>
@@ -4998,12 +5046,12 @@
       <c r="S28" s="44" t="n"/>
       <c r="T28" s="44" t="n"/>
       <c r="U28" s="41" t="n"/>
-      <c r="V28" s="126" t="inlineStr">
+      <c r="V28" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W28" s="126" t="inlineStr">
+      <c r="W28" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5013,33 +5061,33 @@
       <c r="Z28" s="46" t="n"/>
     </row>
     <row r="29" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A29" s="129" t="inlineStr">
+      <c r="A29" s="125" t="inlineStr">
         <is>
           <t>20220056</t>
         </is>
       </c>
-      <c r="B29" s="127" t="inlineStr">
+      <c r="B29" s="126" t="inlineStr">
         <is>
           <t>Precision calculations of matrix elements for Novel CP Violation</t>
         </is>
       </c>
-      <c r="C29" s="122" t="n">
+      <c r="C29" s="127" t="n">
         <v>64</v>
       </c>
-      <c r="D29" s="123" t="n">
+      <c r="D29" s="128" t="n">
         <v>2.78</v>
       </c>
-      <c r="E29" s="124" t="inlineStr">
+      <c r="E29" s="129" t="inlineStr">
         <is>
           <t>Rajan Gupta</t>
         </is>
       </c>
-      <c r="F29" s="124" t="inlineStr">
+      <c r="F29" s="129" t="inlineStr">
         <is>
           <t>GuptaRajan</t>
         </is>
       </c>
-      <c r="G29" s="125" t="inlineStr">
+      <c r="G29" s="130" t="inlineStr">
         <is>
           <t>6/17/2022 7:11:04 PM</t>
         </is>
@@ -5058,12 +5106,12 @@
       <c r="S29" s="44" t="n"/>
       <c r="T29" s="44" t="n"/>
       <c r="U29" s="41" t="n"/>
-      <c r="V29" s="126" t="inlineStr">
+      <c r="V29" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W29" s="126" t="inlineStr">
+      <c r="W29" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5073,33 +5121,33 @@
       <c r="Z29" s="46" t="n"/>
     </row>
     <row r="30" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A30" s="129" t="inlineStr">
+      <c r="A30" s="125" t="inlineStr">
         <is>
           <t>20220057</t>
         </is>
       </c>
-      <c r="B30" s="127" t="inlineStr">
+      <c r="B30" s="126" t="inlineStr">
         <is>
           <t>Characterizing Energy Landscape of Substrate Translocation in Bacterial</t>
         </is>
       </c>
-      <c r="C30" s="122" t="n">
+      <c r="C30" s="127" t="n">
         <v>71</v>
       </c>
-      <c r="D30" s="123" t="n">
+      <c r="D30" s="128" t="n">
         <v>6.44</v>
       </c>
-      <c r="E30" s="124" t="inlineStr">
+      <c r="E30" s="129" t="inlineStr">
         <is>
           <t>Wonpil Im</t>
         </is>
       </c>
-      <c r="F30" s="124" t="inlineStr">
+      <c r="F30" s="129" t="inlineStr">
         <is>
           <t>ImWonpil</t>
         </is>
       </c>
-      <c r="G30" s="125" t="inlineStr">
+      <c r="G30" s="130" t="inlineStr">
         <is>
           <t>6/16/2022 8:13:47 AM</t>
         </is>
@@ -5118,12 +5166,12 @@
       <c r="S30" s="44" t="n"/>
       <c r="T30" s="44" t="n"/>
       <c r="U30" s="41" t="n"/>
-      <c r="V30" s="126" t="inlineStr">
+      <c r="V30" s="131" t="inlineStr">
         <is>
           <t>No</t>
         </is>
       </c>
-      <c r="W30" s="126" t="inlineStr">
+      <c r="W30" s="131" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
@@ -5133,33 +5181,33 @@
       <c r="Z30" s="46" t="n"/>
     </row>
     <row r="31" ht="39" customFormat="1" customHeight="1" s="11">
-      <c r="A31" s="129" t="inlineStr">
+      <c r="A31" s="125" t="inlineStr">
         <is>
           <t>20220058</t>
         </is>
       </c>
-      <c r="B31" s="127" t="inlineStr">
+      <c r="B31" s="126" t="inlineStr">
         <is>
           <t>Extreme-Scale Data Assimilation for Predictive Flow Simulations</t>
         </is>
       </c>
-      <c r="C31" s="122" t="n">
+      <c r="C31" s="127" t="n">
         <v>63</v>
       </c>
-      <c r="D31" s="123" t="n">
+      <c r="D31" s="128" t="n">
         <v>11.51</v>
       </c>
-      <c r="E31" s="124" t="inlineStr">
+      <c r="E31" s="129" t="inlineStr">
         <is>
           <t>Jonathan MacArt</t>
         </is>
       </c>
-      <c r="F31" s="124" t="inlineStr">
+      <c r="F31" s="129" t="inlineStr">
         <is>
           <t>MacArtJonathan</t>
         </is>
       </c>
-      <c r="G31" s="125" t="inlineStr">
+      <c r="G31" s="130" t="inlineStr">
         <is>
           <t>6/16/2022 8:01:26 PM</t>
         </is>
@@ -5178,12 +5226,12 @@
       <c r="S31" s="44" t="n"/>
       <c r="T31" s="44" t="n"/>
       <c r="U31" s="41" t="n"/>
-      <c r="V31" s="126" t="inlineStr">
+      <c r="V31" s="131" t="inlineStr">
         <is>
           <t>Yes</t>
         </is>
       </c>
-      <c r="W31" s="126" t="inlineStr">
+      <c r="W31" s="131" t="inlineStr">
         <is>
           <t>201</t>
         </is>
@@ -5199,10 +5247,10 @@
         <f>LEN(B32)</f>
         <v/>
       </c>
-      <c r="D32" s="56" t="n"/>
+      <c r="D32" s="133" t="n"/>
       <c r="E32" s="48" t="n"/>
       <c r="F32" s="48" t="n"/>
-      <c r="G32" s="51" t="n"/>
+      <c r="G32" s="134" t="n"/>
       <c r="H32" s="41" t="n"/>
       <c r="I32" s="41" t="n"/>
       <c r="J32" s="41" t="n"/>
@@ -5230,10 +5278,10 @@
         <f>LEN(B33)</f>
         <v/>
       </c>
-      <c r="D33" s="56" t="n"/>
+      <c r="D33" s="133" t="n"/>
       <c r="E33" s="48" t="n"/>
       <c r="F33" s="48" t="n"/>
-      <c r="G33" s="51" t="n"/>
+      <c r="G33" s="134" t="n"/>
       <c r="H33" s="41" t="n"/>
       <c r="I33" s="41" t="n"/>
       <c r="J33" s="41" t="n"/>
@@ -5261,10 +5309,10 @@
         <f>LEN(B34)</f>
         <v/>
       </c>
-      <c r="D34" s="56" t="n"/>
+      <c r="D34" s="133" t="n"/>
       <c r="E34" s="48" t="n"/>
       <c r="F34" s="48" t="n"/>
-      <c r="G34" s="51" t="n"/>
+      <c r="G34" s="134" t="n"/>
       <c r="H34" s="41" t="n"/>
       <c r="I34" s="41" t="n"/>
       <c r="J34" s="41" t="n"/>
@@ -5292,10 +5340,10 @@
         <f>LEN(B35)</f>
         <v/>
       </c>
-      <c r="D35" s="56" t="n"/>
+      <c r="D35" s="133" t="n"/>
       <c r="E35" s="48" t="n"/>
       <c r="F35" s="48" t="n"/>
-      <c r="G35" s="51" t="n"/>
+      <c r="G35" s="134" t="n"/>
       <c r="H35" s="41" t="n"/>
       <c r="I35" s="41" t="n"/>
       <c r="J35" s="41" t="n"/>
@@ -5323,10 +5371,10 @@
         <f>LEN(B36)</f>
         <v/>
       </c>
-      <c r="D36" s="56" t="n"/>
+      <c r="D36" s="133" t="n"/>
       <c r="E36" s="48" t="n"/>
       <c r="F36" s="48" t="n"/>
-      <c r="G36" s="51" t="n"/>
+      <c r="G36" s="134" t="n"/>
       <c r="H36" s="41" t="n"/>
       <c r="I36" s="41" t="n"/>
       <c r="J36" s="41" t="n"/>
@@ -5354,10 +5402,10 @@
         <f>LEN(B37)</f>
         <v/>
       </c>
-      <c r="D37" s="56" t="n"/>
+      <c r="D37" s="133" t="n"/>
       <c r="E37" s="48" t="n"/>
       <c r="F37" s="48" t="n"/>
-      <c r="G37" s="51" t="n"/>
+      <c r="G37" s="134" t="n"/>
       <c r="H37" s="41" t="n"/>
       <c r="I37" s="41" t="n"/>
       <c r="J37" s="41" t="n"/>
@@ -5385,10 +5433,10 @@
         <f>LEN(B38)</f>
         <v/>
       </c>
-      <c r="D38" s="56" t="n"/>
+      <c r="D38" s="133" t="n"/>
       <c r="E38" s="49" t="n"/>
       <c r="F38" s="48" t="n"/>
-      <c r="G38" s="51" t="n"/>
+      <c r="G38" s="134" t="n"/>
       <c r="H38" s="41" t="n"/>
       <c r="I38" s="41" t="n"/>
       <c r="J38" s="41" t="n"/>
@@ -5416,10 +5464,10 @@
         <f>LEN(B39)</f>
         <v/>
       </c>
-      <c r="D39" s="56" t="n"/>
+      <c r="D39" s="133" t="n"/>
       <c r="E39" s="48" t="n"/>
       <c r="F39" s="48" t="n"/>
-      <c r="G39" s="51" t="n"/>
+      <c r="G39" s="134" t="n"/>
       <c r="H39" s="41" t="n"/>
       <c r="I39" s="41" t="n"/>
       <c r="J39" s="41" t="n"/>
@@ -5447,10 +5495,10 @@
         <f>LEN(B40)</f>
         <v/>
       </c>
-      <c r="D40" s="56" t="n"/>
+      <c r="D40" s="133" t="n"/>
       <c r="E40" s="48" t="n"/>
       <c r="F40" s="48" t="n"/>
-      <c r="G40" s="51" t="n"/>
+      <c r="G40" s="134" t="n"/>
       <c r="H40" s="41" t="n"/>
       <c r="I40" s="41" t="n"/>
       <c r="J40" s="41" t="n"/>
@@ -5478,10 +5526,10 @@
         <f>LEN(B41)</f>
         <v/>
       </c>
-      <c r="D41" s="56" t="n"/>
+      <c r="D41" s="133" t="n"/>
       <c r="E41" s="48" t="n"/>
       <c r="F41" s="48" t="n"/>
-      <c r="G41" s="51" t="n"/>
+      <c r="G41" s="134" t="n"/>
       <c r="H41" s="41" t="n"/>
       <c r="I41" s="41" t="n"/>
       <c r="J41" s="41" t="n"/>
@@ -5509,10 +5557,10 @@
         <f>LEN(B42)</f>
         <v/>
       </c>
-      <c r="D42" s="56" t="n"/>
+      <c r="D42" s="133" t="n"/>
       <c r="E42" s="48" t="n"/>
       <c r="F42" s="48" t="n"/>
-      <c r="G42" s="51" t="n"/>
+      <c r="G42" s="134" t="n"/>
       <c r="H42" s="41" t="n"/>
       <c r="I42" s="41" t="n"/>
       <c r="J42" s="41" t="n"/>
@@ -5540,10 +5588,10 @@
         <f>LEN(B43)</f>
         <v/>
       </c>
-      <c r="D43" s="56" t="n"/>
+      <c r="D43" s="133" t="n"/>
       <c r="E43" s="48" t="n"/>
       <c r="F43" s="48" t="n"/>
-      <c r="G43" s="51" t="n"/>
+      <c r="G43" s="134" t="n"/>
       <c r="H43" s="41" t="n"/>
       <c r="I43" s="41" t="n"/>
       <c r="J43" s="41" t="n"/>
@@ -5571,10 +5619,10 @@
         <f>LEN(B44)</f>
         <v/>
       </c>
-      <c r="D44" s="56" t="n"/>
+      <c r="D44" s="133" t="n"/>
       <c r="E44" s="48" t="n"/>
       <c r="F44" s="48" t="n"/>
-      <c r="G44" s="51" t="n"/>
+      <c r="G44" s="134" t="n"/>
       <c r="H44" s="41" t="n"/>
       <c r="I44" s="41" t="n"/>
       <c r="J44" s="41" t="n"/>
@@ -5602,10 +5650,10 @@
         <f>LEN(B45)</f>
         <v/>
       </c>
-      <c r="D45" s="56" t="n"/>
+      <c r="D45" s="133" t="n"/>
       <c r="E45" s="48" t="n"/>
       <c r="F45" s="48" t="n"/>
-      <c r="G45" s="51" t="n"/>
+      <c r="G45" s="134" t="n"/>
       <c r="H45" s="41" t="n"/>
       <c r="I45" s="41" t="n"/>
       <c r="J45" s="41" t="n"/>
@@ -5633,10 +5681,10 @@
         <f>LEN(B46)</f>
         <v/>
       </c>
-      <c r="D46" s="56" t="n"/>
+      <c r="D46" s="133" t="n"/>
       <c r="E46" s="48" t="n"/>
       <c r="F46" s="48" t="n"/>
-      <c r="G46" s="51" t="n"/>
+      <c r="G46" s="134" t="n"/>
       <c r="H46" s="41" t="n"/>
       <c r="I46" s="41" t="n"/>
       <c r="J46" s="41" t="n"/>
@@ -5664,10 +5712,10 @@
         <f>LEN(B47)</f>
         <v/>
       </c>
-      <c r="D47" s="56" t="n"/>
+      <c r="D47" s="133" t="n"/>
       <c r="E47" s="49" t="n"/>
       <c r="F47" s="48" t="n"/>
-      <c r="G47" s="51" t="n"/>
+      <c r="G47" s="134" t="n"/>
       <c r="H47" s="41" t="n"/>
       <c r="I47" s="41" t="n"/>
       <c r="J47" s="41" t="n"/>
@@ -5695,10 +5743,10 @@
         <f>LEN(B48)</f>
         <v/>
       </c>
-      <c r="D48" s="56" t="n"/>
+      <c r="D48" s="133" t="n"/>
       <c r="E48" s="48" t="n"/>
       <c r="F48" s="48" t="n"/>
-      <c r="G48" s="51" t="n"/>
+      <c r="G48" s="134" t="n"/>
       <c r="H48" s="41" t="n"/>
       <c r="I48" s="41" t="n"/>
       <c r="J48" s="41" t="n"/>
@@ -5726,10 +5774,10 @@
         <f>LEN(B49)</f>
         <v/>
       </c>
-      <c r="D49" s="56" t="n"/>
+      <c r="D49" s="133" t="n"/>
       <c r="E49" s="48" t="n"/>
       <c r="F49" s="48" t="n"/>
-      <c r="G49" s="51" t="n"/>
+      <c r="G49" s="134" t="n"/>
       <c r="H49" s="41" t="n"/>
       <c r="I49" s="41" t="n"/>
       <c r="J49" s="41" t="n"/>
@@ -5757,10 +5805,10 @@
         <f>LEN(B50)</f>
         <v/>
       </c>
-      <c r="D50" s="56" t="n"/>
+      <c r="D50" s="133" t="n"/>
       <c r="E50" s="48" t="n"/>
       <c r="F50" s="48" t="n"/>
-      <c r="G50" s="51" t="n"/>
+      <c r="G50" s="134" t="n"/>
       <c r="H50" s="41" t="n"/>
       <c r="I50" s="41" t="n"/>
       <c r="J50" s="41" t="n"/>
@@ -5788,10 +5836,10 @@
         <f>LEN(B51)</f>
         <v/>
       </c>
-      <c r="D51" s="56" t="n"/>
+      <c r="D51" s="133" t="n"/>
       <c r="E51" s="48" t="n"/>
       <c r="F51" s="48" t="n"/>
-      <c r="G51" s="51" t="n"/>
+      <c r="G51" s="134" t="n"/>
       <c r="H51" s="41" t="n"/>
       <c r="I51" s="41" t="n"/>
       <c r="J51" s="41" t="n"/>
@@ -5819,10 +5867,10 @@
         <f>LEN(B52)</f>
         <v/>
       </c>
-      <c r="D52" s="56" t="n"/>
+      <c r="D52" s="133" t="n"/>
       <c r="E52" s="48" t="n"/>
       <c r="F52" s="48" t="n"/>
-      <c r="G52" s="51" t="n"/>
+      <c r="G52" s="134" t="n"/>
       <c r="H52" s="41" t="n"/>
       <c r="I52" s="41" t="n"/>
       <c r="J52" s="41" t="n"/>
@@ -5850,10 +5898,10 @@
         <f>LEN(B53)</f>
         <v/>
       </c>
-      <c r="D53" s="56" t="n"/>
+      <c r="D53" s="133" t="n"/>
       <c r="E53" s="48" t="n"/>
       <c r="F53" s="48" t="n"/>
-      <c r="G53" s="51" t="n"/>
+      <c r="G53" s="134" t="n"/>
       <c r="H53" s="41" t="n"/>
       <c r="I53" s="41" t="n"/>
       <c r="J53" s="41" t="n"/>
@@ -5881,10 +5929,10 @@
         <f>LEN(B54)</f>
         <v/>
       </c>
-      <c r="D54" s="56" t="n"/>
+      <c r="D54" s="133" t="n"/>
       <c r="E54" s="48" t="n"/>
       <c r="F54" s="48" t="n"/>
-      <c r="G54" s="51" t="n"/>
+      <c r="G54" s="134" t="n"/>
       <c r="H54" s="41" t="n"/>
       <c r="I54" s="41" t="n"/>
       <c r="J54" s="41" t="n"/>
@@ -5912,10 +5960,10 @@
         <f>LEN(B55)</f>
         <v/>
       </c>
-      <c r="D55" s="56" t="n"/>
+      <c r="D55" s="133" t="n"/>
       <c r="E55" s="48" t="n"/>
       <c r="F55" s="48" t="n"/>
-      <c r="G55" s="51" t="n"/>
+      <c r="G55" s="134" t="n"/>
       <c r="H55" s="41" t="n"/>
       <c r="I55" s="41" t="n"/>
       <c r="J55" s="41" t="n"/>
@@ -5943,10 +5991,10 @@
         <f>LEN(B56)</f>
         <v/>
       </c>
-      <c r="D56" s="56" t="n"/>
+      <c r="D56" s="133" t="n"/>
       <c r="E56" s="48" t="n"/>
       <c r="F56" s="48" t="n"/>
-      <c r="G56" s="51" t="n"/>
+      <c r="G56" s="134" t="n"/>
       <c r="H56" s="41" t="n"/>
       <c r="I56" s="41" t="n"/>
       <c r="J56" s="41" t="n"/>
@@ -5974,10 +6022,10 @@
         <f>LEN(B57)</f>
         <v/>
       </c>
-      <c r="D57" s="56" t="n"/>
+      <c r="D57" s="133" t="n"/>
       <c r="E57" s="48" t="n"/>
       <c r="F57" s="48" t="n"/>
-      <c r="G57" s="51" t="n"/>
+      <c r="G57" s="134" t="n"/>
       <c r="H57" s="41" t="n"/>
       <c r="I57" s="41" t="n"/>
       <c r="J57" s="41" t="n"/>
@@ -6005,10 +6053,10 @@
         <f>LEN(B58)</f>
         <v/>
       </c>
-      <c r="D58" s="56" t="n"/>
+      <c r="D58" s="133" t="n"/>
       <c r="E58" s="48" t="n"/>
       <c r="F58" s="48" t="n"/>
-      <c r="G58" s="51" t="n"/>
+      <c r="G58" s="134" t="n"/>
       <c r="H58" s="41" t="n"/>
       <c r="I58" s="41" t="n"/>
       <c r="J58" s="41" t="n"/>
@@ -6036,10 +6084,10 @@
         <f>LEN(B59)</f>
         <v/>
       </c>
-      <c r="D59" s="56" t="n"/>
+      <c r="D59" s="133" t="n"/>
       <c r="E59" s="48" t="n"/>
       <c r="F59" s="48" t="n"/>
-      <c r="G59" s="51" t="n"/>
+      <c r="G59" s="134" t="n"/>
       <c r="H59" s="41" t="n"/>
       <c r="I59" s="41" t="n"/>
       <c r="J59" s="41" t="n"/>
@@ -6067,10 +6115,10 @@
         <f>LEN(B60)</f>
         <v/>
       </c>
-      <c r="D60" s="56" t="n"/>
+      <c r="D60" s="133" t="n"/>
       <c r="E60" s="48" t="n"/>
       <c r="F60" s="48" t="n"/>
-      <c r="G60" s="51" t="n"/>
+      <c r="G60" s="134" t="n"/>
       <c r="H60" s="41" t="n"/>
       <c r="I60" s="41" t="n"/>
       <c r="J60" s="41" t="n"/>
@@ -6098,10 +6146,10 @@
         <f>LEN(B61)</f>
         <v/>
       </c>
-      <c r="D61" s="56" t="n"/>
+      <c r="D61" s="133" t="n"/>
       <c r="E61" s="49" t="n"/>
       <c r="F61" s="48" t="n"/>
-      <c r="G61" s="51" t="n"/>
+      <c r="G61" s="134" t="n"/>
       <c r="H61" s="41" t="n"/>
       <c r="I61" s="41" t="n"/>
       <c r="J61" s="41" t="n"/>
@@ -6129,10 +6177,10 @@
         <f>LEN(B62)</f>
         <v/>
       </c>
-      <c r="D62" s="56" t="n"/>
+      <c r="D62" s="133" t="n"/>
       <c r="E62" s="48" t="n"/>
       <c r="F62" s="48" t="n"/>
-      <c r="G62" s="51" t="n"/>
+      <c r="G62" s="134" t="n"/>
       <c r="H62" s="41" t="n"/>
       <c r="I62" s="41" t="n"/>
       <c r="J62" s="41" t="n"/>
@@ -6160,10 +6208,10 @@
         <f>LEN(B63)</f>
         <v/>
       </c>
-      <c r="D63" s="56" t="n"/>
+      <c r="D63" s="133" t="n"/>
       <c r="E63" s="48" t="n"/>
       <c r="F63" s="48" t="n"/>
-      <c r="G63" s="51" t="n"/>
+      <c r="G63" s="134" t="n"/>
       <c r="H63" s="41" t="n"/>
       <c r="I63" s="41" t="n"/>
       <c r="J63" s="41" t="n"/>
@@ -6191,10 +6239,10 @@
         <f>LEN(B64)</f>
         <v/>
       </c>
-      <c r="D64" s="56" t="n"/>
+      <c r="D64" s="133" t="n"/>
       <c r="E64" s="48" t="n"/>
       <c r="F64" s="48" t="n"/>
-      <c r="G64" s="51" t="n"/>
+      <c r="G64" s="134" t="n"/>
       <c r="H64" s="41" t="n"/>
       <c r="I64" s="41" t="n"/>
       <c r="J64" s="41" t="n"/>
@@ -6222,10 +6270,10 @@
         <f>LEN(B65)</f>
         <v/>
       </c>
-      <c r="D65" s="56" t="n"/>
+      <c r="D65" s="133" t="n"/>
       <c r="E65" s="48" t="n"/>
       <c r="F65" s="48" t="n"/>
-      <c r="G65" s="51" t="n"/>
+      <c r="G65" s="134" t="n"/>
       <c r="H65" s="41" t="n"/>
       <c r="I65" s="41" t="n"/>
       <c r="J65" s="41" t="n"/>
@@ -6253,10 +6301,10 @@
         <f>LEN(B66)</f>
         <v/>
       </c>
-      <c r="D66" s="56" t="n"/>
+      <c r="D66" s="133" t="n"/>
       <c r="E66" s="48" t="n"/>
       <c r="F66" s="48" t="n"/>
-      <c r="G66" s="51" t="n"/>
+      <c r="G66" s="134" t="n"/>
       <c r="H66" s="41" t="n"/>
       <c r="I66" s="41" t="n"/>
       <c r="J66" s="41" t="n"/>
@@ -6284,10 +6332,10 @@
         <f>LEN(B67)</f>
         <v/>
       </c>
-      <c r="D67" s="56" t="n"/>
+      <c r="D67" s="133" t="n"/>
       <c r="E67" s="48" t="n"/>
       <c r="F67" s="48" t="n"/>
-      <c r="G67" s="51" t="n"/>
+      <c r="G67" s="134" t="n"/>
       <c r="H67" s="41" t="n"/>
       <c r="I67" s="41" t="n"/>
       <c r="J67" s="41" t="n"/>
@@ -6315,10 +6363,10 @@
         <f>LEN(B68)</f>
         <v/>
       </c>
-      <c r="D68" s="56" t="n"/>
+      <c r="D68" s="133" t="n"/>
       <c r="E68" s="48" t="n"/>
       <c r="F68" s="48" t="n"/>
-      <c r="G68" s="51" t="n"/>
+      <c r="G68" s="134" t="n"/>
       <c r="H68" s="41" t="n"/>
       <c r="I68" s="41" t="n"/>
       <c r="J68" s="41" t="n"/>
@@ -6346,10 +6394,10 @@
         <f>LEN(B69)</f>
         <v/>
       </c>
-      <c r="D69" s="56" t="n"/>
+      <c r="D69" s="133" t="n"/>
       <c r="E69" s="48" t="n"/>
       <c r="F69" s="48" t="n"/>
-      <c r="G69" s="51" t="n"/>
+      <c r="G69" s="134" t="n"/>
       <c r="H69" s="41" t="n"/>
       <c r="I69" s="41" t="n"/>
       <c r="J69" s="41" t="n"/>
@@ -6377,10 +6425,10 @@
         <f>LEN(B70)</f>
         <v/>
       </c>
-      <c r="D70" s="56" t="n"/>
+      <c r="D70" s="133" t="n"/>
       <c r="E70" s="48" t="n"/>
       <c r="F70" s="48" t="n"/>
-      <c r="G70" s="51" t="n"/>
+      <c r="G70" s="134" t="n"/>
       <c r="H70" s="41" t="n"/>
       <c r="I70" s="41" t="n"/>
       <c r="J70" s="41" t="n"/>
@@ -6408,10 +6456,10 @@
         <f>LEN(B71)</f>
         <v/>
       </c>
-      <c r="D71" s="56" t="n"/>
+      <c r="D71" s="133" t="n"/>
       <c r="E71" s="48" t="n"/>
       <c r="F71" s="48" t="n"/>
-      <c r="G71" s="51" t="n"/>
+      <c r="G71" s="134" t="n"/>
       <c r="H71" s="41" t="n"/>
       <c r="I71" s="41" t="n"/>
       <c r="J71" s="41" t="n"/>
@@ -6439,10 +6487,10 @@
         <f>LEN(B72)</f>
         <v/>
       </c>
-      <c r="D72" s="56" t="n"/>
+      <c r="D72" s="133" t="n"/>
       <c r="E72" s="48" t="n"/>
       <c r="F72" s="48" t="n"/>
-      <c r="G72" s="51" t="n"/>
+      <c r="G72" s="134" t="n"/>
       <c r="H72" s="41" t="n"/>
       <c r="I72" s="41" t="n"/>
       <c r="J72" s="41" t="n"/>
@@ -6470,10 +6518,10 @@
         <f>LEN(B73)</f>
         <v/>
       </c>
-      <c r="D73" s="56" t="n"/>
+      <c r="D73" s="133" t="n"/>
       <c r="E73" s="48" t="n"/>
       <c r="F73" s="48" t="n"/>
-      <c r="G73" s="51" t="n"/>
+      <c r="G73" s="134" t="n"/>
       <c r="H73" s="41" t="n"/>
       <c r="I73" s="41" t="n"/>
       <c r="J73" s="41" t="n"/>
@@ -6501,10 +6549,10 @@
         <f>LEN(B74)</f>
         <v/>
       </c>
-      <c r="D74" s="56" t="n"/>
+      <c r="D74" s="133" t="n"/>
       <c r="E74" s="49" t="n"/>
       <c r="F74" s="48" t="n"/>
-      <c r="G74" s="51" t="n"/>
+      <c r="G74" s="134" t="n"/>
       <c r="H74" s="41" t="n"/>
       <c r="I74" s="41" t="n"/>
       <c r="J74" s="41" t="n"/>
@@ -6532,10 +6580,10 @@
         <f>LEN(B75)</f>
         <v/>
       </c>
-      <c r="D75" s="56" t="n"/>
+      <c r="D75" s="133" t="n"/>
       <c r="E75" s="48" t="n"/>
       <c r="F75" s="48" t="n"/>
-      <c r="G75" s="51" t="n"/>
+      <c r="G75" s="134" t="n"/>
       <c r="H75" s="41" t="n"/>
       <c r="I75" s="41" t="n"/>
       <c r="J75" s="41" t="n"/>
@@ -6563,10 +6611,10 @@
         <f>LEN(B76)</f>
         <v/>
       </c>
-      <c r="D76" s="56" t="n"/>
+      <c r="D76" s="133" t="n"/>
       <c r="E76" s="48" t="n"/>
       <c r="F76" s="48" t="n"/>
-      <c r="G76" s="51" t="n"/>
+      <c r="G76" s="134" t="n"/>
       <c r="H76" s="41" t="n"/>
       <c r="I76" s="41" t="n"/>
       <c r="J76" s="41" t="n"/>
@@ -6690,10 +6738,10 @@
         <f>LEN(B77)</f>
         <v/>
       </c>
-      <c r="D77" s="56" t="n"/>
+      <c r="D77" s="133" t="n"/>
       <c r="E77" s="48" t="n"/>
       <c r="F77" s="48" t="n"/>
-      <c r="G77" s="51" t="n"/>
+      <c r="G77" s="134" t="n"/>
       <c r="H77" s="41" t="n"/>
       <c r="I77" s="41" t="n"/>
       <c r="J77" s="41" t="n"/>
@@ -6817,10 +6865,10 @@
         <f>LEN(B78)</f>
         <v/>
       </c>
-      <c r="D78" s="56" t="n"/>
+      <c r="D78" s="133" t="n"/>
       <c r="E78" s="48" t="n"/>
       <c r="F78" s="48" t="n"/>
-      <c r="G78" s="51" t="n"/>
+      <c r="G78" s="134" t="n"/>
       <c r="H78" s="41" t="n"/>
       <c r="I78" s="41" t="n"/>
       <c r="J78" s="41" t="n"/>
@@ -6944,10 +6992,10 @@
         <f>LEN(B79)</f>
         <v/>
       </c>
-      <c r="D79" s="56" t="n"/>
+      <c r="D79" s="133" t="n"/>
       <c r="E79" s="48" t="n"/>
       <c r="F79" s="48" t="n"/>
-      <c r="G79" s="51" t="n"/>
+      <c r="G79" s="134" t="n"/>
       <c r="H79" s="41" t="n"/>
       <c r="I79" s="41" t="n"/>
       <c r="J79" s="41" t="n"/>
@@ -7071,10 +7119,10 @@
         <f>LEN(B80)</f>
         <v/>
       </c>
-      <c r="D80" s="56" t="n"/>
+      <c r="D80" s="133" t="n"/>
       <c r="E80" s="48" t="n"/>
       <c r="F80" s="48" t="n"/>
-      <c r="G80" s="51" t="n"/>
+      <c r="G80" s="134" t="n"/>
       <c r="H80" s="41" t="n"/>
       <c r="I80" s="41" t="n"/>
       <c r="J80" s="41" t="n"/>
@@ -7198,10 +7246,10 @@
         <f>LEN(B81)</f>
         <v/>
       </c>
-      <c r="D81" s="56" t="n"/>
+      <c r="D81" s="133" t="n"/>
       <c r="E81" s="48" t="n"/>
       <c r="F81" s="48" t="n"/>
-      <c r="G81" s="51" t="n"/>
+      <c r="G81" s="134" t="n"/>
       <c r="H81" s="41" t="n"/>
       <c r="I81" s="41" t="n"/>
       <c r="J81" s="41" t="n"/>
@@ -7325,10 +7373,10 @@
         <f>LEN(B82)</f>
         <v/>
       </c>
-      <c r="D82" s="56" t="n"/>
+      <c r="D82" s="133" t="n"/>
       <c r="E82" s="48" t="n"/>
       <c r="F82" s="48" t="n"/>
-      <c r="G82" s="51" t="n"/>
+      <c r="G82" s="134" t="n"/>
       <c r="H82" s="41" t="n"/>
       <c r="I82" s="41" t="n"/>
       <c r="J82" s="41" t="n"/>
@@ -7452,10 +7500,10 @@
         <f>LEN(B83)</f>
         <v/>
       </c>
-      <c r="D83" s="56" t="n"/>
+      <c r="D83" s="133" t="n"/>
       <c r="E83" s="48" t="n"/>
       <c r="F83" s="48" t="n"/>
-      <c r="G83" s="51" t="n"/>
+      <c r="G83" s="134" t="n"/>
       <c r="H83" s="41" t="n"/>
       <c r="I83" s="41" t="n"/>
       <c r="J83" s="41" t="n"/>
@@ -7579,10 +7627,10 @@
         <f>LEN(B84)</f>
         <v/>
       </c>
-      <c r="D84" s="56" t="n"/>
+      <c r="D84" s="133" t="n"/>
       <c r="E84" s="48" t="n"/>
       <c r="F84" s="48" t="n"/>
-      <c r="G84" s="51" t="n"/>
+      <c r="G84" s="134" t="n"/>
       <c r="H84" s="41" t="n"/>
       <c r="I84" s="41" t="n"/>
       <c r="J84" s="41" t="n"/>
@@ -7706,10 +7754,10 @@
         <f>LEN(B85)</f>
         <v/>
       </c>
-      <c r="D85" s="56" t="n"/>
+      <c r="D85" s="133" t="n"/>
       <c r="E85" s="48" t="n"/>
       <c r="F85" s="48" t="n"/>
-      <c r="G85" s="51" t="n"/>
+      <c r="G85" s="134" t="n"/>
       <c r="H85" s="41" t="n"/>
       <c r="I85" s="41" t="n"/>
       <c r="J85" s="41" t="n"/>
@@ -7833,10 +7881,10 @@
         <f>LEN(B86)</f>
         <v/>
       </c>
-      <c r="D86" s="56" t="n"/>
+      <c r="D86" s="133" t="n"/>
       <c r="E86" s="48" t="n"/>
       <c r="F86" s="48" t="n"/>
-      <c r="G86" s="51" t="n"/>
+      <c r="G86" s="134" t="n"/>
       <c r="H86" s="41" t="n"/>
       <c r="I86" s="41" t="n"/>
       <c r="J86" s="41" t="n"/>
@@ -7960,10 +8008,10 @@
         <f>LEN(B87)</f>
         <v/>
       </c>
-      <c r="D87" s="56" t="n"/>
+      <c r="D87" s="133" t="n"/>
       <c r="E87" s="48" t="n"/>
       <c r="F87" s="48" t="n"/>
-      <c r="G87" s="51" t="n"/>
+      <c r="G87" s="134" t="n"/>
       <c r="H87" s="41" t="n"/>
       <c r="I87" s="41" t="n"/>
       <c r="J87" s="41" t="n"/>
@@ -8087,10 +8135,10 @@
         <f>LEN(B88)</f>
         <v/>
       </c>
-      <c r="D88" s="56" t="n"/>
+      <c r="D88" s="133" t="n"/>
       <c r="E88" s="48" t="n"/>
       <c r="F88" s="48" t="n"/>
-      <c r="G88" s="51" t="n"/>
+      <c r="G88" s="134" t="n"/>
       <c r="H88" s="41" t="n"/>
       <c r="I88" s="41" t="n"/>
       <c r="J88" s="41" t="n"/>
@@ -8214,10 +8262,10 @@
         <f>LEN(B89)</f>
         <v/>
       </c>
-      <c r="D89" s="56" t="n"/>
+      <c r="D89" s="133" t="n"/>
       <c r="E89" s="48" t="n"/>
       <c r="F89" s="48" t="n"/>
-      <c r="G89" s="51" t="n"/>
+      <c r="G89" s="134" t="n"/>
       <c r="H89" s="41" t="n"/>
       <c r="I89" s="41" t="n"/>
       <c r="J89" s="41" t="n"/>
@@ -8341,10 +8389,10 @@
         <f>LEN(B90)</f>
         <v/>
       </c>
-      <c r="D90" s="56" t="n"/>
+      <c r="D90" s="133" t="n"/>
       <c r="E90" s="48" t="n"/>
       <c r="F90" s="48" t="n"/>
-      <c r="G90" s="51" t="n"/>
+      <c r="G90" s="134" t="n"/>
       <c r="H90" s="41" t="n"/>
       <c r="I90" s="41" t="n"/>
       <c r="J90" s="41" t="n"/>
@@ -8468,10 +8516,10 @@
         <f>LEN(B91)</f>
         <v/>
       </c>
-      <c r="D91" s="56" t="n"/>
+      <c r="D91" s="133" t="n"/>
       <c r="E91" s="48" t="n"/>
       <c r="F91" s="48" t="n"/>
-      <c r="G91" s="51" t="n"/>
+      <c r="G91" s="134" t="n"/>
       <c r="H91" s="41" t="n"/>
       <c r="I91" s="41" t="n"/>
       <c r="J91" s="41" t="n"/>
@@ -8595,10 +8643,10 @@
         <f>LEN(B92)</f>
         <v/>
       </c>
-      <c r="D92" s="56" t="n"/>
+      <c r="D92" s="133" t="n"/>
       <c r="E92" s="48" t="n"/>
       <c r="F92" s="48" t="n"/>
-      <c r="G92" s="51" t="n"/>
+      <c r="G92" s="134" t="n"/>
       <c r="H92" s="41" t="n"/>
       <c r="I92" s="41" t="n"/>
       <c r="J92" s="41" t="n"/>
@@ -8722,10 +8770,10 @@
         <f>LEN(B93)</f>
         <v/>
       </c>
-      <c r="D93" s="56" t="n"/>
+      <c r="D93" s="133" t="n"/>
       <c r="E93" s="48" t="n"/>
       <c r="F93" s="48" t="n"/>
-      <c r="G93" s="51" t="n"/>
+      <c r="G93" s="134" t="n"/>
       <c r="H93" s="41" t="n"/>
       <c r="I93" s="41" t="n"/>
       <c r="J93" s="41" t="n"/>
@@ -8849,10 +8897,10 @@
         <f>LEN(B94)</f>
         <v/>
       </c>
-      <c r="D94" s="56" t="n"/>
+      <c r="D94" s="133" t="n"/>
       <c r="E94" s="48" t="n"/>
       <c r="F94" s="48" t="n"/>
-      <c r="G94" s="51" t="n"/>
+      <c r="G94" s="134" t="n"/>
       <c r="H94" s="41" t="n"/>
       <c r="I94" s="41" t="n"/>
       <c r="J94" s="41" t="n"/>
@@ -8976,10 +9024,10 @@
         <f>LEN(B95)</f>
         <v/>
       </c>
-      <c r="D95" s="56" t="n"/>
+      <c r="D95" s="133" t="n"/>
       <c r="E95" s="48" t="n"/>
       <c r="F95" s="48" t="n"/>
-      <c r="G95" s="51" t="n"/>
+      <c r="G95" s="134" t="n"/>
       <c r="H95" s="41" t="n"/>
       <c r="I95" s="41" t="n"/>
       <c r="J95" s="41" t="n"/>
@@ -9103,10 +9151,10 @@
         <f>LEN(B96)</f>
         <v/>
       </c>
-      <c r="D96" s="56" t="n"/>
+      <c r="D96" s="133" t="n"/>
       <c r="E96" s="48" t="n"/>
       <c r="F96" s="48" t="n"/>
-      <c r="G96" s="51" t="n"/>
+      <c r="G96" s="134" t="n"/>
       <c r="H96" s="41" t="n"/>
       <c r="I96" s="41" t="n"/>
       <c r="J96" s="41" t="n"/>
@@ -9230,10 +9278,10 @@
         <f>LEN(B97)</f>
         <v/>
       </c>
-      <c r="D97" s="56" t="n"/>
+      <c r="D97" s="133" t="n"/>
       <c r="E97" s="48" t="n"/>
       <c r="F97" s="48" t="n"/>
-      <c r="G97" s="51" t="n"/>
+      <c r="G97" s="134" t="n"/>
       <c r="H97" s="41" t="n"/>
       <c r="I97" s="41" t="n"/>
       <c r="J97" s="41" t="n"/>
@@ -9357,10 +9405,10 @@
         <f>LEN(B98)</f>
         <v/>
       </c>
-      <c r="D98" s="56" t="n"/>
+      <c r="D98" s="133" t="n"/>
       <c r="E98" s="48" t="n"/>
       <c r="F98" s="48" t="n"/>
-      <c r="G98" s="51" t="n"/>
+      <c r="G98" s="134" t="n"/>
       <c r="H98" s="41" t="n"/>
       <c r="I98" s="41" t="n"/>
       <c r="J98" s="41" t="n"/>
@@ -9484,10 +9532,10 @@
         <f>LEN(B99)</f>
         <v/>
       </c>
-      <c r="D99" s="56" t="n"/>
+      <c r="D99" s="133" t="n"/>
       <c r="E99" s="48" t="n"/>
       <c r="F99" s="48" t="n"/>
-      <c r="G99" s="51" t="n"/>
+      <c r="G99" s="134" t="n"/>
       <c r="H99" s="41" t="n"/>
       <c r="I99" s="41" t="n"/>
       <c r="J99" s="41" t="n"/>
@@ -9611,10 +9659,10 @@
         <f>LEN(B100)</f>
         <v/>
       </c>
-      <c r="D100" s="56" t="n"/>
+      <c r="D100" s="133" t="n"/>
       <c r="E100" s="48" t="n"/>
       <c r="F100" s="48" t="n"/>
-      <c r="G100" s="51" t="n"/>
+      <c r="G100" s="134" t="n"/>
       <c r="H100" s="41" t="n"/>
       <c r="I100" s="41" t="n"/>
       <c r="J100" s="41" t="n"/>
@@ -9738,10 +9786,10 @@
         <f>LEN(B101)</f>
         <v/>
       </c>
-      <c r="D101" s="56" t="n"/>
+      <c r="D101" s="133" t="n"/>
       <c r="E101" s="48" t="n"/>
       <c r="F101" s="48" t="n"/>
-      <c r="G101" s="51" t="n"/>
+      <c r="G101" s="134" t="n"/>
       <c r="H101" s="41" t="n"/>
       <c r="I101" s="41" t="n"/>
       <c r="J101" s="41" t="n"/>
@@ -9865,10 +9913,10 @@
         <f>LEN(B102)</f>
         <v/>
       </c>
-      <c r="D102" s="56" t="n"/>
+      <c r="D102" s="133" t="n"/>
       <c r="E102" s="48" t="n"/>
       <c r="F102" s="48" t="n"/>
-      <c r="G102" s="51" t="n"/>
+      <c r="G102" s="134" t="n"/>
       <c r="H102" s="41" t="n"/>
       <c r="I102" s="41" t="n"/>
       <c r="J102" s="41" t="n"/>
@@ -9992,10 +10040,10 @@
         <f>LEN(B103)</f>
         <v/>
       </c>
-      <c r="D103" s="56" t="n"/>
+      <c r="D103" s="133" t="n"/>
       <c r="E103" s="48" t="n"/>
       <c r="F103" s="48" t="n"/>
-      <c r="G103" s="51" t="n"/>
+      <c r="G103" s="134" t="n"/>
       <c r="H103" s="41" t="n"/>
       <c r="I103" s="41" t="n"/>
       <c r="J103" s="41" t="n"/>
@@ -10119,10 +10167,10 @@
         <f>LEN(B104)</f>
         <v/>
       </c>
-      <c r="D104" s="56" t="n"/>
+      <c r="D104" s="133" t="n"/>
       <c r="E104" s="48" t="n"/>
       <c r="F104" s="48" t="n"/>
-      <c r="G104" s="51" t="n"/>
+      <c r="G104" s="134" t="n"/>
       <c r="H104" s="41" t="n"/>
       <c r="I104" s="41" t="n"/>
       <c r="J104" s="41" t="n"/>
@@ -10246,10 +10294,10 @@
         <f>LEN(B105)</f>
         <v/>
       </c>
-      <c r="D105" s="56" t="n"/>
+      <c r="D105" s="133" t="n"/>
       <c r="E105" s="48" t="n"/>
       <c r="F105" s="48" t="n"/>
-      <c r="G105" s="51" t="n"/>
+      <c r="G105" s="134" t="n"/>
       <c r="H105" s="41" t="n"/>
       <c r="I105" s="41" t="n"/>
       <c r="J105" s="41" t="n"/>
@@ -10373,10 +10421,10 @@
         <f>LEN(B106)</f>
         <v/>
       </c>
-      <c r="D106" s="56" t="n"/>
+      <c r="D106" s="133" t="n"/>
       <c r="E106" s="48" t="n"/>
       <c r="F106" s="48" t="n"/>
-      <c r="G106" s="51" t="n"/>
+      <c r="G106" s="134" t="n"/>
       <c r="H106" s="41" t="n"/>
       <c r="I106" s="41" t="n"/>
       <c r="J106" s="41" t="n"/>
@@ -10500,10 +10548,10 @@
         <f>LEN(B107)</f>
         <v/>
       </c>
-      <c r="D107" s="56" t="n"/>
+      <c r="D107" s="133" t="n"/>
       <c r="E107" s="48" t="n"/>
       <c r="F107" s="48" t="n"/>
-      <c r="G107" s="51" t="n"/>
+      <c r="G107" s="134" t="n"/>
       <c r="H107" s="41" t="n"/>
       <c r="I107" s="41" t="n"/>
       <c r="J107" s="41" t="n"/>
@@ -10627,10 +10675,10 @@
         <f>LEN(B108)</f>
         <v/>
       </c>
-      <c r="D108" s="56" t="n"/>
+      <c r="D108" s="133" t="n"/>
       <c r="E108" s="48" t="n"/>
       <c r="F108" s="48" t="n"/>
-      <c r="G108" s="51" t="n"/>
+      <c r="G108" s="134" t="n"/>
       <c r="H108" s="41" t="n"/>
       <c r="I108" s="41" t="n"/>
       <c r="J108" s="41" t="n"/>
@@ -10754,10 +10802,10 @@
         <f>LEN(B109)</f>
         <v/>
       </c>
-      <c r="D109" s="56" t="n"/>
+      <c r="D109" s="133" t="n"/>
       <c r="E109" s="48" t="n"/>
       <c r="F109" s="48" t="n"/>
-      <c r="G109" s="51" t="n"/>
+      <c r="G109" s="134" t="n"/>
       <c r="H109" s="41" t="n"/>
       <c r="I109" s="41" t="n"/>
       <c r="J109" s="41" t="n"/>
@@ -10881,10 +10929,10 @@
         <f>LEN(B110)</f>
         <v/>
       </c>
-      <c r="D110" s="56" t="n"/>
+      <c r="D110" s="133" t="n"/>
       <c r="E110" s="48" t="n"/>
       <c r="F110" s="48" t="n"/>
-      <c r="G110" s="51" t="n"/>
+      <c r="G110" s="134" t="n"/>
       <c r="H110" s="41" t="n"/>
       <c r="I110" s="41" t="n"/>
       <c r="J110" s="41" t="n"/>
@@ -11008,10 +11056,10 @@
         <f>LEN(B111)</f>
         <v/>
       </c>
-      <c r="D111" s="56" t="n"/>
+      <c r="D111" s="133" t="n"/>
       <c r="E111" s="48" t="n"/>
       <c r="F111" s="48" t="n"/>
-      <c r="G111" s="51" t="n"/>
+      <c r="G111" s="134" t="n"/>
       <c r="H111" s="41" t="n"/>
       <c r="I111" s="41" t="n"/>
       <c r="J111" s="41" t="n"/>
@@ -11135,10 +11183,10 @@
         <f>LEN(B112)</f>
         <v/>
       </c>
-      <c r="D112" s="56" t="n"/>
+      <c r="D112" s="133" t="n"/>
       <c r="E112" s="48" t="n"/>
       <c r="F112" s="48" t="n"/>
-      <c r="G112" s="51" t="n"/>
+      <c r="G112" s="134" t="n"/>
       <c r="H112" s="41" t="n"/>
       <c r="I112" s="41" t="n"/>
       <c r="J112" s="41" t="n"/>
@@ -11262,10 +11310,10 @@
         <f>LEN(B113)</f>
         <v/>
       </c>
-      <c r="D113" s="56" t="n"/>
+      <c r="D113" s="133" t="n"/>
       <c r="E113" s="48" t="n"/>
       <c r="F113" s="48" t="n"/>
-      <c r="G113" s="51" t="n"/>
+      <c r="G113" s="134" t="n"/>
       <c r="H113" s="41" t="n"/>
       <c r="I113" s="41" t="n"/>
       <c r="J113" s="41" t="n"/>
@@ -11389,10 +11437,10 @@
         <f>LEN(B114)</f>
         <v/>
       </c>
-      <c r="D114" s="56" t="n"/>
+      <c r="D114" s="133" t="n"/>
       <c r="E114" s="48" t="n"/>
       <c r="F114" s="48" t="n"/>
-      <c r="G114" s="51" t="n"/>
+      <c r="G114" s="134" t="n"/>
       <c r="H114" s="41" t="n"/>
       <c r="I114" s="41" t="n"/>
       <c r="J114" s="41" t="n"/>
@@ -11516,10 +11564,10 @@
         <f>LEN(B115)</f>
         <v/>
       </c>
-      <c r="D115" s="56" t="n"/>
+      <c r="D115" s="133" t="n"/>
       <c r="E115" s="48" t="n"/>
       <c r="F115" s="48" t="n"/>
-      <c r="G115" s="51" t="n"/>
+      <c r="G115" s="134" t="n"/>
       <c r="H115" s="41" t="n"/>
       <c r="I115" s="41" t="n"/>
       <c r="J115" s="41" t="n"/>
@@ -11643,10 +11691,10 @@
         <f>LEN(B116)</f>
         <v/>
       </c>
-      <c r="D116" s="56" t="n"/>
+      <c r="D116" s="133" t="n"/>
       <c r="E116" s="48" t="n"/>
       <c r="F116" s="48" t="n"/>
-      <c r="G116" s="51" t="n"/>
+      <c r="G116" s="134" t="n"/>
       <c r="H116" s="41" t="n"/>
       <c r="I116" s="41" t="n"/>
       <c r="J116" s="41" t="n"/>
@@ -11770,10 +11818,10 @@
         <f>LEN(B117)</f>
         <v/>
       </c>
-      <c r="D117" s="56" t="n"/>
+      <c r="D117" s="133" t="n"/>
       <c r="E117" s="48" t="n"/>
       <c r="F117" s="48" t="n"/>
-      <c r="G117" s="51" t="n"/>
+      <c r="G117" s="134" t="n"/>
       <c r="H117" s="41" t="n"/>
       <c r="I117" s="41" t="n"/>
       <c r="J117" s="41" t="n"/>
@@ -11897,10 +11945,10 @@
         <f>LEN(B118)</f>
         <v/>
       </c>
-      <c r="D118" s="56" t="n"/>
+      <c r="D118" s="133" t="n"/>
       <c r="E118" s="48" t="n"/>
       <c r="F118" s="48" t="n"/>
-      <c r="G118" s="51" t="n"/>
+      <c r="G118" s="134" t="n"/>
       <c r="H118" s="41" t="n"/>
       <c r="I118" s="41" t="n"/>
       <c r="J118" s="41" t="n"/>
@@ -12024,10 +12072,10 @@
         <f>LEN(B119)</f>
         <v/>
       </c>
-      <c r="D119" s="56" t="n"/>
+      <c r="D119" s="133" t="n"/>
       <c r="E119" s="48" t="n"/>
       <c r="F119" s="48" t="n"/>
-      <c r="G119" s="51" t="n"/>
+      <c r="G119" s="134" t="n"/>
       <c r="H119" s="41" t="n"/>
       <c r="I119" s="41" t="n"/>
       <c r="J119" s="41" t="n"/>
@@ -12151,10 +12199,10 @@
         <f>LEN(B120)</f>
         <v/>
       </c>
-      <c r="D120" s="56" t="n"/>
+      <c r="D120" s="133" t="n"/>
       <c r="E120" s="48" t="n"/>
       <c r="F120" s="48" t="n"/>
-      <c r="G120" s="51" t="n"/>
+      <c r="G120" s="134" t="n"/>
       <c r="H120" s="41" t="n"/>
       <c r="I120" s="41" t="n"/>
       <c r="J120" s="41" t="n"/>
@@ -12278,10 +12326,10 @@
         <f>LEN(B121)</f>
         <v/>
       </c>
-      <c r="D121" s="56" t="n"/>
+      <c r="D121" s="133" t="n"/>
       <c r="E121" s="48" t="n"/>
       <c r="F121" s="48" t="n"/>
-      <c r="G121" s="51" t="n"/>
+      <c r="G121" s="134" t="n"/>
       <c r="H121" s="41" t="n"/>
       <c r="I121" s="41" t="n"/>
       <c r="J121" s="41" t="n"/>
@@ -12405,10 +12453,10 @@
         <f>LEN(B122)</f>
         <v/>
       </c>
-      <c r="D122" s="56" t="n"/>
+      <c r="D122" s="133" t="n"/>
       <c r="E122" s="48" t="n"/>
       <c r="F122" s="48" t="n"/>
-      <c r="G122" s="51" t="n"/>
+      <c r="G122" s="134" t="n"/>
       <c r="H122" s="41" t="n"/>
       <c r="I122" s="41" t="n"/>
       <c r="J122" s="41" t="n"/>
@@ -12532,10 +12580,10 @@
         <f>LEN(B123)</f>
         <v/>
       </c>
-      <c r="D123" s="56" t="n"/>
+      <c r="D123" s="133" t="n"/>
       <c r="E123" s="48" t="n"/>
       <c r="F123" s="48" t="n"/>
-      <c r="G123" s="51" t="n"/>
+      <c r="G123" s="134" t="n"/>
       <c r="H123" s="41" t="n"/>
       <c r="I123" s="41" t="n"/>
       <c r="J123" s="41" t="n"/>
@@ -12659,10 +12707,10 @@
         <f>LEN(B124)</f>
         <v/>
       </c>
-      <c r="D124" s="56" t="n"/>
+      <c r="D124" s="133" t="n"/>
       <c r="E124" s="48" t="n"/>
       <c r="F124" s="48" t="n"/>
-      <c r="G124" s="51" t="n"/>
+      <c r="G124" s="134" t="n"/>
       <c r="H124" s="41" t="n"/>
       <c r="I124" s="41" t="n"/>
       <c r="J124" s="41" t="n"/>
@@ -12786,10 +12834,10 @@
         <f>LEN(B125)</f>
         <v/>
       </c>
-      <c r="D125" s="56" t="n"/>
+      <c r="D125" s="133" t="n"/>
       <c r="E125" s="48" t="n"/>
       <c r="F125" s="48" t="n"/>
-      <c r="G125" s="51" t="n"/>
+      <c r="G125" s="134" t="n"/>
       <c r="H125" s="41" t="n"/>
       <c r="I125" s="41" t="n"/>
       <c r="J125" s="41" t="n"/>
@@ -12913,10 +12961,10 @@
         <f>LEN(B126)</f>
         <v/>
       </c>
-      <c r="D126" s="56" t="n"/>
+      <c r="D126" s="133" t="n"/>
       <c r="E126" s="48" t="n"/>
       <c r="F126" s="48" t="n"/>
-      <c r="G126" s="51" t="n"/>
+      <c r="G126" s="134" t="n"/>
       <c r="H126" s="41" t="n"/>
       <c r="I126" s="41" t="n"/>
       <c r="J126" s="41" t="n"/>
@@ -13040,10 +13088,10 @@
         <f>LEN(B127)</f>
         <v/>
       </c>
-      <c r="D127" s="56" t="n"/>
+      <c r="D127" s="133" t="n"/>
       <c r="E127" s="48" t="n"/>
       <c r="F127" s="48" t="n"/>
-      <c r="G127" s="51" t="n"/>
+      <c r="G127" s="134" t="n"/>
       <c r="H127" s="41" t="n"/>
       <c r="I127" s="41" t="n"/>
       <c r="J127" s="41" t="n"/>
@@ -13167,10 +13215,10 @@
         <f>LEN(B128)</f>
         <v/>
       </c>
-      <c r="D128" s="56" t="n"/>
+      <c r="D128" s="133" t="n"/>
       <c r="E128" s="48" t="n"/>
       <c r="F128" s="48" t="n"/>
-      <c r="G128" s="51" t="n"/>
+      <c r="G128" s="134" t="n"/>
       <c r="H128" s="41" t="n"/>
       <c r="I128" s="41" t="n"/>
       <c r="J128" s="41" t="n"/>
@@ -13294,10 +13342,10 @@
         <f>LEN(B129)</f>
         <v/>
       </c>
-      <c r="D129" s="56" t="n"/>
+      <c r="D129" s="133" t="n"/>
       <c r="E129" s="48" t="n"/>
       <c r="F129" s="48" t="n"/>
-      <c r="G129" s="51" t="n"/>
+      <c r="G129" s="134" t="n"/>
       <c r="H129" s="41" t="n"/>
       <c r="I129" s="41" t="n"/>
       <c r="J129" s="41" t="n"/>
@@ -13421,10 +13469,10 @@
         <f>LEN(B130)</f>
         <v/>
       </c>
-      <c r="D130" s="56" t="n"/>
+      <c r="D130" s="133" t="n"/>
       <c r="E130" s="48" t="n"/>
       <c r="F130" s="48" t="n"/>
-      <c r="G130" s="51" t="n"/>
+      <c r="G130" s="134" t="n"/>
       <c r="H130" s="41" t="n"/>
       <c r="I130" s="41" t="n"/>
       <c r="J130" s="41" t="n"/>
@@ -13548,10 +13596,10 @@
         <f>LEN(B131)</f>
         <v/>
       </c>
-      <c r="D131" s="56" t="n"/>
+      <c r="D131" s="133" t="n"/>
       <c r="E131" s="48" t="n"/>
       <c r="F131" s="48" t="n"/>
-      <c r="G131" s="51" t="n"/>
+      <c r="G131" s="134" t="n"/>
       <c r="H131" s="41" t="n"/>
       <c r="I131" s="41" t="n"/>
       <c r="J131" s="41" t="n"/>
@@ -13675,10 +13723,10 @@
         <f>LEN(B132)</f>
         <v/>
       </c>
-      <c r="D132" s="56" t="n"/>
+      <c r="D132" s="133" t="n"/>
       <c r="E132" s="48" t="n"/>
       <c r="F132" s="48" t="n"/>
-      <c r="G132" s="51" t="n"/>
+      <c r="G132" s="134" t="n"/>
       <c r="H132" s="41" t="n"/>
       <c r="I132" s="41" t="n"/>
       <c r="J132" s="41" t="n"/>
@@ -13802,10 +13850,10 @@
         <f>LEN(B133)</f>
         <v/>
       </c>
-      <c r="D133" s="56" t="n"/>
+      <c r="D133" s="133" t="n"/>
       <c r="E133" s="48" t="n"/>
       <c r="F133" s="48" t="n"/>
-      <c r="G133" s="51" t="n"/>
+      <c r="G133" s="134" t="n"/>
       <c r="H133" s="41" t="n"/>
       <c r="I133" s="41" t="n"/>
       <c r="J133" s="41" t="n"/>
@@ -13929,10 +13977,10 @@
         <f>LEN(B134)</f>
         <v/>
       </c>
-      <c r="D134" s="56" t="n"/>
+      <c r="D134" s="133" t="n"/>
       <c r="E134" s="48" t="n"/>
       <c r="F134" s="48" t="n"/>
-      <c r="G134" s="51" t="n"/>
+      <c r="G134" s="134" t="n"/>
       <c r="H134" s="41" t="n"/>
       <c r="I134" s="41" t="n"/>
       <c r="J134" s="41" t="n"/>
@@ -14056,10 +14104,10 @@
         <f>LEN(B135)</f>
         <v/>
       </c>
-      <c r="D135" s="56" t="n"/>
+      <c r="D135" s="133" t="n"/>
       <c r="E135" s="48" t="n"/>
       <c r="F135" s="48" t="n"/>
-      <c r="G135" s="51" t="n"/>
+      <c r="G135" s="134" t="n"/>
       <c r="H135" s="41" t="n"/>
       <c r="I135" s="41" t="n"/>
       <c r="J135" s="41" t="n"/>
@@ -14183,10 +14231,10 @@
         <f>LEN(B136)</f>
         <v/>
       </c>
-      <c r="D136" s="56" t="n"/>
+      <c r="D136" s="133" t="n"/>
       <c r="E136" s="48" t="n"/>
       <c r="F136" s="48" t="n"/>
-      <c r="G136" s="51" t="n"/>
+      <c r="G136" s="134" t="n"/>
       <c r="H136" s="41" t="n"/>
       <c r="I136" s="41" t="n"/>
       <c r="J136" s="41" t="n"/>
@@ -14310,10 +14358,10 @@
         <f>LEN(B137)</f>
         <v/>
       </c>
-      <c r="D137" s="56" t="n"/>
+      <c r="D137" s="133" t="n"/>
       <c r="E137" s="48" t="n"/>
       <c r="F137" s="48" t="n"/>
-      <c r="G137" s="51" t="n"/>
+      <c r="G137" s="134" t="n"/>
       <c r="H137" s="41" t="n"/>
       <c r="I137" s="41" t="n"/>
       <c r="J137" s="41" t="n"/>
@@ -14437,10 +14485,10 @@
         <f>LEN(B138)</f>
         <v/>
       </c>
-      <c r="D138" s="56" t="n"/>
+      <c r="D138" s="133" t="n"/>
       <c r="E138" s="48" t="n"/>
       <c r="F138" s="48" t="n"/>
-      <c r="G138" s="51" t="n"/>
+      <c r="G138" s="134" t="n"/>
       <c r="H138" s="41" t="n"/>
       <c r="I138" s="41" t="n"/>
       <c r="J138" s="41" t="n"/>
@@ -14564,10 +14612,10 @@
         <f>LEN(B139)</f>
         <v/>
       </c>
-      <c r="D139" s="56" t="n"/>
+      <c r="D139" s="133" t="n"/>
       <c r="E139" s="48" t="n"/>
       <c r="F139" s="48" t="n"/>
-      <c r="G139" s="51" t="n"/>
+      <c r="G139" s="134" t="n"/>
       <c r="H139" s="41" t="n"/>
       <c r="I139" s="41" t="n"/>
       <c r="J139" s="41" t="n"/>
@@ -14691,10 +14739,10 @@
         <f>LEN(B140)</f>
         <v/>
       </c>
-      <c r="D140" s="56" t="n"/>
+      <c r="D140" s="133" t="n"/>
       <c r="E140" s="48" t="n"/>
       <c r="F140" s="48" t="n"/>
-      <c r="G140" s="51" t="n"/>
+      <c r="G140" s="134" t="n"/>
       <c r="H140" s="41" t="n"/>
       <c r="I140" s="41" t="n"/>
       <c r="J140" s="41" t="n"/>
@@ -14818,10 +14866,10 @@
         <f>LEN(B141)</f>
         <v/>
       </c>
-      <c r="D141" s="56" t="n"/>
+      <c r="D141" s="133" t="n"/>
       <c r="E141" s="48" t="n"/>
       <c r="F141" s="48" t="n"/>
-      <c r="G141" s="51" t="n"/>
+      <c r="G141" s="134" t="n"/>
       <c r="H141" s="41" t="n"/>
       <c r="I141" s="41" t="n"/>
       <c r="J141" s="41" t="n"/>
@@ -14945,10 +14993,10 @@
         <f>LEN(B142)</f>
         <v/>
       </c>
-      <c r="D142" s="56" t="n"/>
+      <c r="D142" s="133" t="n"/>
       <c r="E142" s="48" t="n"/>
       <c r="F142" s="48" t="n"/>
-      <c r="G142" s="51" t="n"/>
+      <c r="G142" s="134" t="n"/>
       <c r="H142" s="41" t="n"/>
       <c r="I142" s="41" t="n"/>
       <c r="J142" s="41" t="n"/>
@@ -15072,10 +15120,10 @@
         <f>LEN(B143)</f>
         <v/>
       </c>
-      <c r="D143" s="56" t="n"/>
+      <c r="D143" s="133" t="n"/>
       <c r="E143" s="48" t="n"/>
       <c r="F143" s="48" t="n"/>
-      <c r="G143" s="51" t="n"/>
+      <c r="G143" s="134" t="n"/>
       <c r="H143" s="41" t="n"/>
       <c r="I143" s="41" t="n"/>
       <c r="J143" s="41" t="n"/>
@@ -15199,10 +15247,10 @@
         <f>LEN(B144)</f>
         <v/>
       </c>
-      <c r="D144" s="56" t="n"/>
+      <c r="D144" s="133" t="n"/>
       <c r="E144" s="48" t="n"/>
       <c r="F144" s="48" t="n"/>
-      <c r="G144" s="51" t="n"/>
+      <c r="G144" s="134" t="n"/>
       <c r="H144" s="41" t="n"/>
       <c r="I144" s="41" t="n"/>
       <c r="J144" s="41" t="n"/>
@@ -15326,10 +15374,10 @@
         <f>LEN(B145)</f>
         <v/>
       </c>
-      <c r="D145" s="56" t="n"/>
+      <c r="D145" s="133" t="n"/>
       <c r="E145" s="48" t="n"/>
       <c r="F145" s="48" t="n"/>
-      <c r="G145" s="51" t="n"/>
+      <c r="G145" s="134" t="n"/>
       <c r="H145" s="41" t="n"/>
       <c r="I145" s="41" t="n"/>
       <c r="J145" s="41" t="n"/>
@@ -15453,10 +15501,10 @@
         <f>LEN(B146)</f>
         <v/>
       </c>
-      <c r="D146" s="56" t="n"/>
+      <c r="D146" s="133" t="n"/>
       <c r="E146" s="48" t="n"/>
       <c r="F146" s="48" t="n"/>
-      <c r="G146" s="51" t="n"/>
+      <c r="G146" s="134" t="n"/>
       <c r="H146" s="41" t="n"/>
       <c r="I146" s="41" t="n"/>
       <c r="J146" s="41" t="n"/>
@@ -15580,10 +15628,10 @@
         <f>LEN(B147)</f>
         <v/>
       </c>
-      <c r="D147" s="56" t="n"/>
+      <c r="D147" s="133" t="n"/>
       <c r="E147" s="48" t="n"/>
       <c r="F147" s="48" t="n"/>
-      <c r="G147" s="51" t="n"/>
+      <c r="G147" s="134" t="n"/>
       <c r="H147" s="41" t="n"/>
       <c r="I147" s="41" t="n"/>
       <c r="J147" s="41" t="n"/>
@@ -15707,10 +15755,10 @@
         <f>LEN(B148)</f>
         <v/>
       </c>
-      <c r="D148" s="56" t="n"/>
+      <c r="D148" s="133" t="n"/>
       <c r="E148" s="48" t="n"/>
       <c r="F148" s="48" t="n"/>
-      <c r="G148" s="51" t="n"/>
+      <c r="G148" s="134" t="n"/>
       <c r="H148" s="41" t="n"/>
       <c r="I148" s="41" t="n"/>
       <c r="J148" s="41" t="n"/>
@@ -15834,10 +15882,10 @@
         <f>LEN(B149)</f>
         <v/>
       </c>
-      <c r="D149" s="56" t="n"/>
+      <c r="D149" s="133" t="n"/>
       <c r="E149" s="48" t="n"/>
       <c r="F149" s="48" t="n"/>
-      <c r="G149" s="51" t="n"/>
+      <c r="G149" s="134" t="n"/>
       <c r="H149" s="41" t="n"/>
       <c r="I149" s="41" t="n"/>
       <c r="J149" s="41" t="n"/>
@@ -15961,10 +16009,10 @@
         <f>LEN(B150)</f>
         <v/>
       </c>
-      <c r="D150" s="56" t="n"/>
+      <c r="D150" s="133" t="n"/>
       <c r="E150" s="48" t="n"/>
       <c r="F150" s="48" t="n"/>
-      <c r="G150" s="51" t="n"/>
+      <c r="G150" s="134" t="n"/>
       <c r="H150" s="41" t="n"/>
       <c r="I150" s="41" t="n"/>
       <c r="J150" s="41" t="n"/>
@@ -16088,10 +16136,10 @@
         <f>LEN(B151)</f>
         <v/>
       </c>
-      <c r="D151" s="56" t="n"/>
+      <c r="D151" s="133" t="n"/>
       <c r="E151" s="48" t="n"/>
       <c r="F151" s="48" t="n"/>
-      <c r="G151" s="51" t="n"/>
+      <c r="G151" s="134" t="n"/>
       <c r="H151" s="41" t="n"/>
       <c r="I151" s="41" t="n"/>
       <c r="J151" s="41" t="n"/>
@@ -16215,10 +16263,10 @@
         <f>LEN(B152)</f>
         <v/>
       </c>
-      <c r="D152" s="56" t="n"/>
+      <c r="D152" s="133" t="n"/>
       <c r="E152" s="48" t="n"/>
       <c r="F152" s="48" t="n"/>
-      <c r="G152" s="51" t="n"/>
+      <c r="G152" s="134" t="n"/>
       <c r="H152" s="41" t="n"/>
       <c r="I152" s="41" t="n"/>
       <c r="J152" s="41" t="n"/>
@@ -16342,10 +16390,10 @@
         <f>LEN(B153)</f>
         <v/>
       </c>
-      <c r="D153" s="56" t="n"/>
+      <c r="D153" s="133" t="n"/>
       <c r="E153" s="48" t="n"/>
       <c r="F153" s="48" t="n"/>
-      <c r="G153" s="51" t="n"/>
+      <c r="G153" s="134" t="n"/>
       <c r="H153" s="41" t="n"/>
       <c r="I153" s="41" t="n"/>
       <c r="J153" s="41" t="n"/>
@@ -16469,10 +16517,10 @@
         <f>LEN(B154)</f>
         <v/>
       </c>
-      <c r="D154" s="56" t="n"/>
+      <c r="D154" s="133" t="n"/>
       <c r="E154" s="48" t="n"/>
       <c r="F154" s="48" t="n"/>
-      <c r="G154" s="51" t="n"/>
+      <c r="G154" s="134" t="n"/>
       <c r="H154" s="41" t="n"/>
       <c r="I154" s="41" t="n"/>
       <c r="J154" s="41" t="n"/>
@@ -16596,10 +16644,10 @@
         <f>LEN(B155)</f>
         <v/>
       </c>
-      <c r="D155" s="56" t="n"/>
+      <c r="D155" s="133" t="n"/>
       <c r="E155" s="48" t="n"/>
       <c r="F155" s="48" t="n"/>
-      <c r="G155" s="51" t="n"/>
+      <c r="G155" s="134" t="n"/>
       <c r="H155" s="41" t="n"/>
       <c r="I155" s="41" t="n"/>
       <c r="J155" s="41" t="n"/>
@@ -16723,10 +16771,10 @@
         <f>LEN(B156)</f>
         <v/>
       </c>
-      <c r="D156" s="56" t="n"/>
+      <c r="D156" s="133" t="n"/>
       <c r="E156" s="48" t="n"/>
       <c r="F156" s="48" t="n"/>
-      <c r="G156" s="51" t="n"/>
+      <c r="G156" s="134" t="n"/>
       <c r="H156" s="41" t="n"/>
       <c r="I156" s="41" t="n"/>
       <c r="J156" s="41" t="n"/>
@@ -16850,10 +16898,10 @@
         <f>LEN(B157)</f>
         <v/>
       </c>
-      <c r="D157" s="56" t="n"/>
+      <c r="D157" s="133" t="n"/>
       <c r="E157" s="48" t="n"/>
       <c r="F157" s="48" t="n"/>
-      <c r="G157" s="51" t="n"/>
+      <c r="G157" s="134" t="n"/>
       <c r="H157" s="41" t="n"/>
       <c r="I157" s="41" t="n"/>
       <c r="J157" s="41" t="n"/>
@@ -16977,10 +17025,10 @@
         <f>LEN(B158)</f>
         <v/>
       </c>
-      <c r="D158" s="56" t="n"/>
+      <c r="D158" s="133" t="n"/>
       <c r="E158" s="48" t="n"/>
       <c r="F158" s="48" t="n"/>
-      <c r="G158" s="51" t="n"/>
+      <c r="G158" s="134" t="n"/>
       <c r="H158" s="41" t="n"/>
       <c r="I158" s="41" t="n"/>
       <c r="J158" s="41" t="n"/>
@@ -17104,10 +17152,10 @@
         <f>LEN(B159)</f>
         <v/>
       </c>
-      <c r="D159" s="56" t="n"/>
+      <c r="D159" s="133" t="n"/>
       <c r="E159" s="48" t="n"/>
       <c r="F159" s="48" t="n"/>
-      <c r="G159" s="51" t="n"/>
+      <c r="G159" s="134" t="n"/>
       <c r="H159" s="41" t="n"/>
       <c r="I159" s="41" t="n"/>
       <c r="J159" s="41" t="n"/>
@@ -17231,10 +17279,10 @@
         <f>LEN(B160)</f>
         <v/>
       </c>
-      <c r="D160" s="56" t="n"/>
+      <c r="D160" s="133" t="n"/>
       <c r="E160" s="48" t="n"/>
       <c r="F160" s="48" t="n"/>
-      <c r="G160" s="51" t="n"/>
+      <c r="G160" s="134" t="n"/>
       <c r="H160" s="41" t="n"/>
       <c r="I160" s="41" t="n"/>
       <c r="J160" s="41" t="n"/>
@@ -17358,10 +17406,10 @@
         <f>LEN(B161)</f>
         <v/>
       </c>
-      <c r="D161" s="56" t="n"/>
+      <c r="D161" s="133" t="n"/>
       <c r="E161" s="48" t="n"/>
       <c r="F161" s="48" t="n"/>
-      <c r="G161" s="51" t="n"/>
+      <c r="G161" s="134" t="n"/>
       <c r="H161" s="41" t="n"/>
       <c r="I161" s="41" t="n"/>
       <c r="J161" s="41" t="n"/>
@@ -17485,10 +17533,10 @@
         <f>LEN(B162)</f>
         <v/>
       </c>
-      <c r="D162" s="56" t="n"/>
+      <c r="D162" s="133" t="n"/>
       <c r="E162" s="48" t="n"/>
       <c r="F162" s="48" t="n"/>
-      <c r="G162" s="51" t="n"/>
+      <c r="G162" s="134" t="n"/>
       <c r="H162" s="41" t="n"/>
       <c r="I162" s="41" t="n"/>
       <c r="J162" s="41" t="n"/>
@@ -17612,10 +17660,10 @@
         <f>LEN(B163)</f>
         <v/>
       </c>
-      <c r="D163" s="56" t="n"/>
+      <c r="D163" s="133" t="n"/>
       <c r="E163" s="48" t="n"/>
       <c r="F163" s="48" t="n"/>
-      <c r="G163" s="51" t="n"/>
+      <c r="G163" s="134" t="n"/>
       <c r="H163" s="41" t="n"/>
       <c r="I163" s="41" t="n"/>
       <c r="J163" s="41" t="n"/>
@@ -17739,10 +17787,10 @@
         <f>LEN(B164)</f>
         <v/>
       </c>
-      <c r="D164" s="56" t="n"/>
+      <c r="D164" s="133" t="n"/>
       <c r="E164" s="48" t="n"/>
       <c r="F164" s="48" t="n"/>
-      <c r="G164" s="51" t="n"/>
+      <c r="G164" s="134" t="n"/>
       <c r="H164" s="41" t="n"/>
       <c r="I164" s="41" t="n"/>
       <c r="J164" s="41" t="n"/>
@@ -17866,10 +17914,10 @@
         <f>LEN(B165)</f>
         <v/>
       </c>
-      <c r="D165" s="56" t="n"/>
+      <c r="D165" s="133" t="n"/>
       <c r="E165" s="48" t="n"/>
       <c r="F165" s="48" t="n"/>
-      <c r="G165" s="51" t="n"/>
+      <c r="G165" s="134" t="n"/>
       <c r="H165" s="41" t="n"/>
       <c r="I165" s="41" t="n"/>
       <c r="J165" s="41" t="n"/>
@@ -17993,10 +18041,10 @@
         <f>LEN(B166)</f>
         <v/>
       </c>
-      <c r="D166" s="56" t="n"/>
+      <c r="D166" s="133" t="n"/>
       <c r="E166" s="48" t="n"/>
       <c r="F166" s="48" t="n"/>
-      <c r="G166" s="51" t="n"/>
+      <c r="G166" s="134" t="n"/>
       <c r="H166" s="41" t="n"/>
       <c r="I166" s="41" t="n"/>
       <c r="J166" s="41" t="n"/>
@@ -18120,10 +18168,10 @@
         <f>LEN(B167)</f>
         <v/>
       </c>
-      <c r="D167" s="56" t="n"/>
+      <c r="D167" s="133" t="n"/>
       <c r="E167" s="48" t="n"/>
       <c r="F167" s="48" t="n"/>
-      <c r="G167" s="51" t="n"/>
+      <c r="G167" s="134" t="n"/>
       <c r="H167" s="41" t="n"/>
       <c r="I167" s="41" t="n"/>
       <c r="J167" s="41" t="n"/>
@@ -18247,10 +18295,10 @@
         <f>LEN(B168)</f>
         <v/>
       </c>
-      <c r="D168" s="56" t="n"/>
+      <c r="D168" s="133" t="n"/>
       <c r="E168" s="48" t="n"/>
       <c r="F168" s="48" t="n"/>
-      <c r="G168" s="51" t="n"/>
+      <c r="G168" s="134" t="n"/>
       <c r="H168" s="41" t="n"/>
       <c r="I168" s="41" t="n"/>
       <c r="J168" s="41" t="n"/>
@@ -18374,10 +18422,10 @@
         <f>LEN(B169)</f>
         <v/>
       </c>
-      <c r="D169" s="56" t="n"/>
+      <c r="D169" s="133" t="n"/>
       <c r="E169" s="48" t="n"/>
       <c r="F169" s="48" t="n"/>
-      <c r="G169" s="51" t="n"/>
+      <c r="G169" s="134" t="n"/>
       <c r="H169" s="41" t="n"/>
       <c r="I169" s="41" t="n"/>
       <c r="J169" s="41" t="n"/>
@@ -18501,10 +18549,10 @@
         <f>LEN(B170)</f>
         <v/>
       </c>
-      <c r="D170" s="56" t="n"/>
+      <c r="D170" s="133" t="n"/>
       <c r="E170" s="48" t="n"/>
       <c r="F170" s="48" t="n"/>
-      <c r="G170" s="51" t="n"/>
+      <c r="G170" s="134" t="n"/>
       <c r="H170" s="41" t="n"/>
       <c r="I170" s="41" t="n"/>
       <c r="J170" s="41" t="n"/>
@@ -18628,10 +18676,10 @@
         <f>LEN(B171)</f>
         <v/>
       </c>
-      <c r="D171" s="56" t="n"/>
+      <c r="D171" s="133" t="n"/>
       <c r="E171" s="48" t="n"/>
       <c r="F171" s="48" t="n"/>
-      <c r="G171" s="51" t="n"/>
+      <c r="G171" s="134" t="n"/>
       <c r="H171" s="41" t="n"/>
       <c r="I171" s="41" t="n"/>
       <c r="J171" s="41" t="n"/>
@@ -18755,10 +18803,10 @@
         <f>LEN(B172)</f>
         <v/>
       </c>
-      <c r="D172" s="56" t="n"/>
+      <c r="D172" s="133" t="n"/>
       <c r="E172" s="48" t="n"/>
       <c r="F172" s="48" t="n"/>
-      <c r="G172" s="51" t="n"/>
+      <c r="G172" s="134" t="n"/>
       <c r="H172" s="41" t="n"/>
       <c r="I172" s="41" t="n"/>
       <c r="J172" s="41" t="n"/>
@@ -18882,10 +18930,10 @@
         <f>LEN(B173)</f>
         <v/>
       </c>
-      <c r="D173" s="56" t="n"/>
+      <c r="D173" s="133" t="n"/>
       <c r="E173" s="48" t="n"/>
       <c r="F173" s="48" t="n"/>
-      <c r="G173" s="51" t="n"/>
+      <c r="G173" s="134" t="n"/>
       <c r="H173" s="41" t="n"/>
       <c r="I173" s="41" t="n"/>
       <c r="J173" s="41" t="n"/>
@@ -19009,10 +19057,10 @@
         <f>LEN(B174)</f>
         <v/>
       </c>
-      <c r="D174" s="56" t="n"/>
+      <c r="D174" s="133" t="n"/>
       <c r="E174" s="48" t="n"/>
       <c r="F174" s="48" t="n"/>
-      <c r="G174" s="51" t="n"/>
+      <c r="G174" s="134" t="n"/>
       <c r="H174" s="41" t="n"/>
       <c r="I174" s="41" t="n"/>
       <c r="J174" s="41" t="n"/>
@@ -19612,6 +19660,7 @@
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.25" footer="0.25"/>
   <pageSetup orientation="landscape" paperSize="17" scale="18" fitToHeight="0" pageOrder="overThenDown"/>
+  <legacyDrawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="anysvml"/>
   <tableParts count="1">
     <tablePart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
   </tableParts>
@@ -19633,81 +19682,80 @@
   <sheetFormatPr baseColWidth="8" defaultColWidth="10.85546875" defaultRowHeight="12.75"/>
   <cols>
     <col width="233.7109375" customWidth="1" style="15" min="1" max="1"/>
-    <col width="10.85546875" customWidth="1" style="14" min="2" max="3"/>
-    <col width="10.85546875" customWidth="1" style="14" min="4" max="16384"/>
+    <col width="10.85546875" customWidth="1" style="14" min="2" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" ht="24" customFormat="1" customHeight="1" s="25">
+    <row r="1" ht="23.25" customFormat="1" customHeight="1" s="25">
       <c r="A1" s="26" t="inlineStr">
         <is>
           <t>The proposal must be clear, readily legible, and conform to the following requirements:</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="48" customFormat="1" customHeight="1" s="25">
+    <row r="2" ht="46.5" customFormat="1" customHeight="1" s="25">
       <c r="A2" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">1.       Each section of the proposal must be paginated. Footers should be used for paginating all files. Also, headers should be used to indicate the title of the proposal and the lead principal investigator (PI). </t>
         </is>
       </c>
     </row>
-    <row r="3" ht="24" customFormat="1" customHeight="1" s="25">
+    <row r="3" ht="23.25" customFormat="1" customHeight="1" s="25">
       <c r="A3" s="26" t="inlineStr">
         <is>
           <t>2.       Proposal titles may not be longer than 80 characters.</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="72" customFormat="1" customHeight="1" s="25">
+    <row r="4" ht="69.75" customFormat="1" customHeight="1" s="25">
       <c r="A4" s="26" t="inlineStr">
         <is>
           <t>3.       One of the two typefaces must be used: Arial or Times New Roman (font size 11). A font size of less than 11 points may be used for mathematical formulas or equations, figure, table, or diagram captions, or when using a symbol font to insert Greek letters or special characters. PIs are cautioned, however, that the text must still be readable.</t>
         </is>
       </c>
     </row>
-    <row r="5" ht="24" customFormat="1" customHeight="1" s="25">
+    <row r="5" ht="46.5" customFormat="1" customHeight="1" s="25">
       <c r="A5" s="26" t="inlineStr">
         <is>
           <t>4.       Margins must be at least 1 inch in all directions. These requirements apply to all sections of the proposal, including supplementary documentation.</t>
         </is>
       </c>
     </row>
-    <row r="6" ht="24" customFormat="1" customHeight="1" s="25">
+    <row r="6" ht="23.25" customFormat="1" customHeight="1" s="25">
       <c r="A6" s="26" t="inlineStr">
         <is>
           <t>5.       Proposals should be prepared using single line spacing. The proposal elements should not exceed the specified page count limits.</t>
         </is>
       </c>
     </row>
-    <row r="7" ht="24" customFormat="1" customHeight="1" s="25">
+    <row r="7" ht="23.25" customFormat="1" customHeight="1" s="25">
       <c r="A7" s="26" t="inlineStr">
         <is>
           <t>6.       References should be gathered at the end of the narrative. References are not included in the total page count.</t>
         </is>
       </c>
     </row>
-    <row r="8" ht="24" customFormat="1" customHeight="1" s="25">
+    <row r="8" ht="23.25" customFormat="1" customHeight="1" s="25">
       <c r="A8" s="26" t="inlineStr">
         <is>
           <t>7.       The total file size should be limited to 15 MB.</t>
         </is>
       </c>
     </row>
-    <row r="9" ht="24" customFormat="1" customHeight="1" s="25">
+    <row r="9" ht="46.5" customFormat="1" customHeight="1" s="25">
       <c r="A9" s="26" t="inlineStr">
         <is>
           <t xml:space="preserve">8.       No letters of collaboration or letters of support will be accepted with the application. Current and pending support documentation is not required. </t>
         </is>
       </c>
     </row>
-    <row r="10" ht="48" customFormat="1" customHeight="1" s="25">
+    <row r="10" ht="46.5" customFormat="1" customHeight="1" s="25">
       <c r="A10" s="26" t="inlineStr">
         <is>
           <t>Adherence to type size and spacing requirements is necessary to ensure readability and that no proposer will have an unfair advantage by using smaller type or spacing to accommodate more text.</t>
         </is>
       </c>
     </row>
-    <row r="11" ht="23.1" customFormat="1" customHeight="1" s="25">
+    <row r="11" ht="23.25" customFormat="1" customHeight="1" s="25">
       <c r="A11" s="27" t="n"/>
     </row>
   </sheetData>
@@ -19760,7 +19808,7 @@
         </is>
       </c>
     </row>
-    <row r="7" ht="12.95" customHeight="1">
+    <row r="7" ht="12.75" customHeight="1">
       <c r="A7" s="28" t="inlineStr">
         <is>
           <t>https://www.doeleadershipcomputing.org/proposal/templates/</t>
